--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="293">
   <si>
     <t>p17_can</t>
   </si>
@@ -79,7 +79,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>CORREO INSTITUCIONAL</t>
@@ -1320,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,19 +1396,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1414,13 +1420,13 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1434,19 +1440,22 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1455,13 +1464,13 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1475,19 +1484,22 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1496,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="P4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1516,19 +1528,22 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1537,13 +1552,13 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1557,19 +1572,22 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1578,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="P6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1598,19 +1616,22 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1619,13 +1640,13 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1639,19 +1660,22 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1660,13 +1684,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1680,19 +1704,22 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1701,13 +1728,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1721,19 +1748,22 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1742,13 +1772,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M10" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1762,19 +1792,22 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1783,13 +1816,13 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1803,19 +1836,22 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1824,13 +1860,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1844,19 +1880,22 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1865,13 +1904,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1885,19 +1924,22 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1906,13 +1948,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1926,19 +1968,22 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1947,13 +1992,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1967,19 +2012,22 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1988,13 +2036,13 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="P16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2008,19 +2056,22 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -2029,13 +2080,13 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2049,19 +2100,22 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -2070,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2090,19 +2144,22 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2111,13 +2168,13 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2131,19 +2188,22 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2152,13 +2212,13 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2172,19 +2232,22 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2193,13 +2256,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2213,19 +2276,22 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2234,13 +2300,13 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2254,19 +2320,22 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2275,13 +2344,13 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2295,19 +2364,22 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2316,13 +2388,13 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2336,19 +2408,22 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2357,13 +2432,13 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2377,19 +2452,22 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2398,13 +2476,13 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2418,19 +2496,22 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2439,13 +2520,13 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2459,19 +2540,22 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2480,13 +2564,13 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2500,19 +2584,22 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2521,13 +2608,13 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2541,19 +2628,22 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2562,13 +2652,13 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2582,19 +2672,22 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2603,13 +2696,13 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M31" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2623,19 +2716,22 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2644,13 +2740,13 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2664,19 +2760,22 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2685,13 +2784,13 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M33" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2705,19 +2804,22 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2726,13 +2828,13 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M34" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2746,19 +2848,22 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2767,13 +2872,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2787,19 +2892,22 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -2808,13 +2916,13 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2828,19 +2936,22 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -2849,13 +2960,13 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2869,19 +2980,22 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -2890,13 +3004,13 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -2910,19 +3024,22 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -2931,13 +3048,13 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -2951,19 +3068,22 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -2972,13 +3092,13 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -2992,19 +3112,22 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -3013,13 +3136,13 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M41" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3033,19 +3156,22 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -3054,13 +3180,13 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3074,19 +3200,22 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -3095,13 +3224,13 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3115,19 +3244,22 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -3136,13 +3268,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3156,19 +3288,22 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -3177,13 +3312,13 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M45" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3197,19 +3332,22 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -3218,13 +3356,13 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M46" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3238,19 +3376,22 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -3259,13 +3400,13 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M47" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3279,19 +3420,22 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3300,13 +3444,13 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3320,19 +3464,22 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3341,13 +3488,13 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3361,19 +3508,22 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3382,13 +3532,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3402,19 +3552,22 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3423,13 +3576,13 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3443,19 +3596,22 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3464,13 +3620,13 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3484,19 +3640,22 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3505,13 +3664,13 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M53" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3525,19 +3684,22 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3546,13 +3708,13 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M54" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3566,19 +3728,22 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3587,13 +3752,13 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M55" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3607,19 +3772,22 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3628,13 +3796,13 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M56" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -3648,19 +3816,22 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -3669,13 +3840,13 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M57" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3689,19 +3860,22 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -3710,13 +3884,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M58" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -3730,19 +3904,22 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -3751,13 +3928,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M59" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -3771,19 +3948,22 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -3792,13 +3972,13 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3812,19 +3992,22 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -3833,13 +4016,13 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -3853,19 +4036,22 @@
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -3874,13 +4060,13 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -3894,19 +4080,22 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -3915,13 +4104,13 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -3935,19 +4124,22 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -3956,13 +4148,13 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -3976,16 +4168,19 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="B65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -3994,13 +4189,13 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M65" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4014,19 +4209,22 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -4035,13 +4233,13 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M66" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4055,19 +4253,22 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -4076,13 +4277,13 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M67" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="P67" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4096,19 +4297,22 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -4117,13 +4321,13 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4137,19 +4341,22 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -4158,13 +4365,13 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -4178,19 +4385,22 @@
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -4199,13 +4409,13 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4219,19 +4429,22 @@
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -4240,13 +4453,13 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4260,19 +4473,22 @@
       <c r="V71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -4281,13 +4497,13 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M72" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4301,19 +4517,22 @@
       <c r="V72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -4322,13 +4541,13 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4342,19 +4561,22 @@
       <c r="V73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -4363,13 +4585,13 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4383,19 +4605,22 @@
       <c r="V74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -4404,13 +4629,13 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4424,19 +4649,22 @@
       <c r="V75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4445,13 +4673,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -4465,19 +4693,22 @@
       <c r="V76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4486,13 +4717,13 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -4506,19 +4737,22 @@
       <c r="V77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4527,13 +4761,13 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -4547,19 +4781,22 @@
       <c r="V78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -4568,13 +4805,13 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -4588,19 +4825,22 @@
       <c r="V79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -4609,13 +4849,13 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -4629,19 +4869,22 @@
       <c r="V80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -4650,13 +4893,13 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -4670,19 +4913,22 @@
       <c r="V81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -4691,13 +4937,13 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -4711,19 +4957,22 @@
       <c r="V82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -4732,13 +4981,13 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M83" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -4752,19 +5001,22 @@
       <c r="V83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -4773,13 +5025,13 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M84" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="P84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -4793,19 +5045,22 @@
       <c r="V84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -4814,13 +5069,13 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -4834,19 +5089,22 @@
       <c r="V85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -4855,13 +5113,13 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -4875,19 +5133,22 @@
       <c r="V86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -4896,13 +5157,13 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -4916,19 +5177,22 @@
       <c r="V87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -4937,13 +5201,13 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -4957,19 +5221,22 @@
       <c r="V88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -4978,13 +5245,13 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -4998,19 +5265,22 @@
       <c r="V89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -5019,13 +5289,13 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -5039,19 +5309,22 @@
       <c r="V90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -5060,13 +5333,13 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -5080,19 +5353,22 @@
       <c r="V91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -5101,13 +5377,13 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -5121,19 +5397,22 @@
       <c r="V92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -5142,13 +5421,13 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -5162,19 +5441,22 @@
       <c r="V93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -5183,13 +5465,13 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -5203,19 +5485,22 @@
       <c r="V94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -5224,13 +5509,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M95" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -5244,19 +5529,22 @@
       <c r="V95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -5265,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -5285,19 +5573,22 @@
       <c r="V96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -5306,13 +5597,13 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -5326,19 +5617,22 @@
       <c r="V97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -5347,13 +5641,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -5367,19 +5661,22 @@
       <c r="V98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -5388,13 +5685,13 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -5408,19 +5705,22 @@
       <c r="V99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -5429,13 +5729,13 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M100" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -5449,19 +5749,22 @@
       <c r="V100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -5470,13 +5773,13 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M101" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P101" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -5490,19 +5793,22 @@
       <c r="V101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -5511,13 +5817,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M102" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -5531,19 +5837,22 @@
       <c r="V102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -5552,13 +5861,13 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M103" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -5572,19 +5881,22 @@
       <c r="V103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -5593,13 +5905,13 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -5613,19 +5925,22 @@
       <c r="V104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -5634,13 +5949,13 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -5654,19 +5969,22 @@
       <c r="V105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -5675,13 +5993,13 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -5695,19 +6013,22 @@
       <c r="V106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -5716,13 +6037,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -5736,19 +6057,22 @@
       <c r="V107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -5757,13 +6081,13 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -5777,19 +6101,22 @@
       <c r="V108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -5798,13 +6125,13 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -5818,19 +6145,22 @@
       <c r="V109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -5839,13 +6169,13 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -5859,19 +6189,22 @@
       <c r="V110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -5880,13 +6213,13 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -5900,19 +6233,22 @@
       <c r="V111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -5921,13 +6257,13 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -5941,19 +6277,22 @@
       <c r="V112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -5962,13 +6301,13 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -5982,19 +6321,22 @@
       <c r="V113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6003,13 +6345,13 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -6023,19 +6365,22 @@
       <c r="V114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -6044,13 +6389,13 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -6064,19 +6409,22 @@
       <c r="V115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -6085,13 +6433,13 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -6105,19 +6453,22 @@
       <c r="V116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -6126,13 +6477,13 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -6146,19 +6497,22 @@
       <c r="V117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -6167,13 +6521,13 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -6187,19 +6541,22 @@
       <c r="V118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -6208,13 +6565,13 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -6228,19 +6585,22 @@
       <c r="V119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -6249,13 +6609,13 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -6269,19 +6629,22 @@
       <c r="V120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -6290,13 +6653,13 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M121" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -6310,19 +6673,22 @@
       <c r="V121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -6331,13 +6697,13 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M122" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -6351,19 +6717,22 @@
       <c r="V122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -6372,13 +6741,13 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M123" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -6392,19 +6761,22 @@
       <c r="V123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -6413,13 +6785,13 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M124" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -6433,19 +6805,22 @@
       <c r="V124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -6454,13 +6829,13 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M125" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -6474,19 +6849,22 @@
       <c r="V125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -6495,13 +6873,13 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M126" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -6515,19 +6893,22 @@
       <c r="V126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -6536,13 +6917,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M127" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -6556,19 +6937,22 @@
       <c r="V127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -6577,13 +6961,13 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M128" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -6597,19 +6981,22 @@
       <c r="V128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -6618,13 +7005,13 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M129" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -6638,19 +7025,22 @@
       <c r="V129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -6659,13 +7049,13 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -6679,19 +7069,22 @@
       <c r="V130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -6700,13 +7093,13 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -6720,19 +7113,22 @@
       <c r="V131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -6741,13 +7137,13 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -6761,19 +7157,22 @@
       <c r="V132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -6782,13 +7181,13 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -6802,19 +7201,22 @@
       <c r="V133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -6823,13 +7225,13 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M134" s="2">
         <v>45043.91625</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -6843,19 +7245,22 @@
       <c r="V134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -6864,13 +7269,13 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M135" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -6884,19 +7289,22 @@
       <c r="V135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -6905,13 +7313,13 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M136" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -6925,19 +7333,22 @@
       <c r="V136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -6946,13 +7357,13 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M137" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -6966,19 +7377,22 @@
       <c r="V137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -6987,13 +7401,13 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M138" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -7007,19 +7421,22 @@
       <c r="V138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -7028,13 +7445,13 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M139" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -7048,19 +7465,22 @@
       <c r="V139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -7069,13 +7489,13 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M140" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -7089,19 +7509,22 @@
       <c r="V140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -7110,13 +7533,13 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M141" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -7130,19 +7553,22 @@
       <c r="V141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -7151,13 +7577,13 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M142" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -7171,19 +7597,22 @@
       <c r="V142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -7192,13 +7621,13 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M143" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -7212,19 +7641,22 @@
       <c r="V143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -7233,13 +7665,13 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M144" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -7253,19 +7685,22 @@
       <c r="V144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -7274,13 +7709,13 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M145" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -7294,19 +7729,22 @@
       <c r="V145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -7315,13 +7753,13 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M146" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -7335,19 +7773,22 @@
       <c r="V146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -7356,13 +7797,13 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M147" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -7376,19 +7817,22 @@
       <c r="V147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -7397,13 +7841,13 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M148" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -7417,19 +7861,22 @@
       <c r="V148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -7438,13 +7885,13 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M149" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -7458,19 +7905,22 @@
       <c r="V149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -7479,13 +7929,13 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M150" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -7499,19 +7949,22 @@
       <c r="V150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -7520,13 +7973,13 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M151" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -7540,19 +7993,22 @@
       <c r="V151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -7561,13 +8017,13 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M152" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -7581,19 +8037,22 @@
       <c r="V152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -7602,13 +8061,13 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M153" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -7622,19 +8081,22 @@
       <c r="V153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -7643,13 +8105,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M154" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S154">
         <v>0</v>
@@ -7663,19 +8125,22 @@
       <c r="V154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -7684,13 +8149,13 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M155" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -7704,19 +8169,22 @@
       <c r="V155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -7725,13 +8193,13 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M156" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S156">
         <v>0</v>
@@ -7745,19 +8213,22 @@
       <c r="V156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -7766,13 +8237,13 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M157" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -7786,19 +8257,22 @@
       <c r="V157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -7807,13 +8281,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M158" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S158">
         <v>0</v>
@@ -7827,19 +8301,22 @@
       <c r="V158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -7848,13 +8325,13 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M159" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -7868,19 +8345,22 @@
       <c r="V159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -7889,13 +8369,13 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M160" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -7909,19 +8389,22 @@
       <c r="V160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -7930,13 +8413,13 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M161" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -7950,19 +8433,22 @@
       <c r="V161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -7971,13 +8457,13 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M162" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -7991,19 +8477,22 @@
       <c r="V162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -8012,13 +8501,13 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M163" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S163">
         <v>0</v>
@@ -8032,19 +8521,22 @@
       <c r="V163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -8053,13 +8545,13 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S164">
         <v>0</v>
@@ -8073,19 +8565,22 @@
       <c r="V164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -8094,13 +8589,13 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S165">
         <v>0</v>
@@ -8114,19 +8609,22 @@
       <c r="V165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -8135,13 +8633,13 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S166">
         <v>0</v>
@@ -8155,19 +8653,22 @@
       <c r="V166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="W166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -8176,13 +8677,13 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -8196,19 +8697,22 @@
       <c r="V167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -8217,13 +8721,13 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -8237,19 +8741,22 @@
       <c r="V168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -8258,13 +8765,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M169" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -8278,19 +8785,22 @@
       <c r="V169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -8299,13 +8809,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M170" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S170">
         <v>0</v>
@@ -8319,19 +8829,22 @@
       <c r="V170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -8340,13 +8853,13 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M171" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -8360,19 +8873,22 @@
       <c r="V171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -8381,13 +8897,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M172" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P172" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -8401,19 +8917,22 @@
       <c r="V172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -8422,13 +8941,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M173" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P173" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -8442,19 +8961,22 @@
       <c r="V173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -8463,13 +8985,13 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M174" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="P174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -8483,19 +9005,22 @@
       <c r="V174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -8504,13 +9029,13 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M175" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S175">
         <v>0</v>
@@ -8524,19 +9049,22 @@
       <c r="V175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -8545,13 +9073,13 @@
         <v>107</v>
       </c>
       <c r="L176" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M176" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -8565,19 +9093,22 @@
       <c r="V176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -8586,13 +9117,13 @@
         <v>109</v>
       </c>
       <c r="L177" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M177" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -8606,19 +9137,22 @@
       <c r="V177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J178">
         <v>64</v>
@@ -8627,13 +9161,13 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M178" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -8647,19 +9181,22 @@
       <c r="V178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -8668,13 +9205,13 @@
         <v>110</v>
       </c>
       <c r="L179" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M179" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -8688,19 +9225,22 @@
       <c r="V179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -8709,13 +9249,13 @@
         <v>111</v>
       </c>
       <c r="L180" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M180" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="P180" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -8729,19 +9269,22 @@
       <c r="V180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -8750,13 +9293,13 @@
         <v>113</v>
       </c>
       <c r="L181" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M181" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="P181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -8770,19 +9313,22 @@
       <c r="V181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -8791,13 +9337,13 @@
         <v>114</v>
       </c>
       <c r="L182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M182" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -8811,19 +9357,22 @@
       <c r="V182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -8832,13 +9381,13 @@
         <v>115</v>
       </c>
       <c r="L183" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M183" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="P183" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -8852,19 +9401,22 @@
       <c r="V183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J184">
         <v>69</v>
@@ -8873,13 +9425,13 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M184" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P184" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -8893,19 +9445,22 @@
       <c r="V184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J185">
         <v>69</v>
@@ -8914,13 +9469,13 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M185" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P185" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -8934,19 +9489,22 @@
       <c r="V185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -8955,13 +9513,13 @@
         <v>117</v>
       </c>
       <c r="L186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M186" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P186" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -8975,19 +9533,22 @@
       <c r="V186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -8996,13 +9557,13 @@
         <v>118</v>
       </c>
       <c r="L187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M187" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="P187" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S187">
         <v>0</v>
@@ -9016,19 +9577,22 @@
       <c r="V187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J188">
         <v>71</v>
@@ -9037,13 +9601,13 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M188" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P188" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -9057,19 +9621,22 @@
       <c r="V188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J189">
         <v>71</v>
@@ -9078,13 +9645,13 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M189" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -9098,19 +9665,22 @@
       <c r="V189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J190">
         <v>71</v>
@@ -9119,13 +9689,13 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M190" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -9139,19 +9709,22 @@
       <c r="V190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J191">
         <v>71</v>
@@ -9160,13 +9733,13 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M191" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P191" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -9180,19 +9753,22 @@
       <c r="V191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="W191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J192">
         <v>71</v>
@@ -9201,13 +9777,13 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M192" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P192" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S192">
         <v>0</v>
@@ -9221,19 +9797,22 @@
       <c r="V192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="W192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J193">
         <v>71</v>
@@ -9242,13 +9821,13 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M193" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S193">
         <v>0</v>
@@ -9262,19 +9841,22 @@
       <c r="V193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="W193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J194">
         <v>71</v>
@@ -9283,13 +9865,13 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -9303,19 +9885,22 @@
       <c r="V194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="W194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J195">
         <v>71</v>
@@ -9324,13 +9909,13 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P195" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S195">
         <v>0</v>
@@ -9344,19 +9929,22 @@
       <c r="V195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="W195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J196">
         <v>71</v>
@@ -9365,13 +9953,13 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P196" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -9385,19 +9973,22 @@
       <c r="V196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="W196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J197">
         <v>71</v>
@@ -9406,13 +9997,13 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S197">
         <v>0</v>
@@ -9426,19 +10017,22 @@
       <c r="V197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="W197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J198">
         <v>71</v>
@@ -9447,13 +10041,13 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -9467,19 +10061,22 @@
       <c r="V198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:22">
+      <c r="W198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H199">
         <v>198</v>
       </c>
       <c r="I199" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J199">
         <v>71</v>
@@ -9488,13 +10085,13 @@
         <v>119</v>
       </c>
       <c r="L199" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M199" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P199" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S199">
         <v>0</v>
@@ -9506,6 +10103,9 @@
         <v>0</v>
       </c>
       <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="294">
   <si>
     <t>p17_can</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>CORREO INSTITUCIONAL</t>
@@ -1323,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:X199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,19 +1402,22 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1420,13 +1426,13 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1443,19 +1449,22 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1464,13 +1473,13 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1487,19 +1496,22 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1508,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="P4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1531,19 +1543,22 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1552,13 +1567,13 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="P5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1575,19 +1590,22 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1596,13 +1614,13 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1619,19 +1637,22 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1640,13 +1661,13 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="P7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1663,19 +1684,22 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1684,13 +1708,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1707,19 +1731,22 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1728,13 +1755,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1751,19 +1778,22 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1772,13 +1802,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M10" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="P10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1795,19 +1825,22 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1816,13 +1849,13 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1839,19 +1872,22 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1860,13 +1896,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1883,19 +1919,22 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1904,13 +1943,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1927,19 +1966,22 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1948,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1971,19 +2013,22 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1992,13 +2037,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2015,19 +2060,22 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -2036,13 +2084,13 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2059,19 +2107,22 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -2080,13 +2131,13 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2103,19 +2154,22 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -2124,13 +2178,13 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2147,19 +2201,22 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2168,13 +2225,13 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2191,19 +2248,22 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2212,13 +2272,13 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2235,19 +2295,22 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2256,13 +2319,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2279,19 +2342,22 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2300,13 +2366,13 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2323,19 +2389,22 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2344,13 +2413,13 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2367,19 +2436,22 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2388,13 +2460,13 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2411,19 +2483,22 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2432,13 +2507,13 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2455,19 +2530,22 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2476,13 +2554,13 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2499,19 +2577,22 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2520,13 +2601,13 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2543,19 +2624,22 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2564,13 +2648,13 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2587,19 +2671,22 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2608,13 +2695,13 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2631,19 +2718,22 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2652,13 +2742,13 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2675,19 +2765,22 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2696,13 +2789,13 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M31" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2719,19 +2812,22 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2740,13 +2836,13 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2763,19 +2859,22 @@
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2784,13 +2883,13 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2807,19 +2906,22 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2828,13 +2930,13 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2851,19 +2953,22 @@
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2872,13 +2977,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M35" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2895,19 +3000,22 @@
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -2916,13 +3024,13 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2939,19 +3047,22 @@
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -2960,13 +3071,13 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2983,19 +3094,22 @@
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -3004,13 +3118,13 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3027,19 +3141,22 @@
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -3048,13 +3165,13 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3071,19 +3188,22 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -3092,13 +3212,13 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M40" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3115,19 +3235,22 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -3136,13 +3259,13 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M41" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3159,19 +3282,22 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -3180,13 +3306,13 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3203,19 +3329,22 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -3224,13 +3353,13 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3247,19 +3376,22 @@
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -3268,13 +3400,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3291,19 +3423,22 @@
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -3312,13 +3447,13 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M45" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3335,19 +3470,22 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -3356,13 +3494,13 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M46" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3379,19 +3517,22 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -3400,13 +3541,13 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M47" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3423,19 +3564,22 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3444,13 +3588,13 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3467,19 +3611,22 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3488,13 +3635,13 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3511,19 +3658,22 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3532,13 +3682,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3555,19 +3705,22 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3576,13 +3729,13 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3599,19 +3752,22 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3620,13 +3776,13 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3643,19 +3799,22 @@
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3664,13 +3823,13 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M53" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3687,19 +3846,22 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3708,13 +3870,13 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M54" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3731,19 +3893,22 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3752,13 +3917,13 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M55" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3775,19 +3940,22 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3796,13 +3964,13 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M56" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -3819,19 +3987,22 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -3840,13 +4011,13 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M57" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3863,19 +4034,22 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -3884,13 +4058,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M58" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -3907,19 +4081,22 @@
       <c r="W58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -3928,13 +4105,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M59" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -3951,19 +4128,22 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -3972,13 +4152,13 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3995,19 +4175,22 @@
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -4016,13 +4199,13 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4039,19 +4222,22 @@
       <c r="W61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -4060,13 +4246,13 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4083,19 +4269,22 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -4104,13 +4293,13 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -4127,19 +4316,22 @@
       <c r="W63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -4148,13 +4340,13 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -4171,16 +4363,19 @@
       <c r="W64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="B65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -4189,13 +4384,13 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M65" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="P65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4212,19 +4407,22 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -4233,13 +4431,13 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M66" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4256,19 +4454,22 @@
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -4277,13 +4478,13 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M67" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4300,19 +4501,22 @@
       <c r="W67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -4321,13 +4525,13 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4344,19 +4548,22 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -4365,13 +4572,13 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -4388,19 +4595,22 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -4409,13 +4619,13 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4432,19 +4642,22 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -4453,13 +4666,13 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4476,19 +4689,22 @@
       <c r="W71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -4497,13 +4713,13 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M72" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4520,19 +4736,22 @@
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -4541,13 +4760,13 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4564,19 +4783,22 @@
       <c r="W73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -4585,13 +4807,13 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4608,19 +4830,22 @@
       <c r="W74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -4629,13 +4854,13 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4652,19 +4877,22 @@
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4673,13 +4901,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -4696,19 +4924,22 @@
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4717,13 +4948,13 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -4740,19 +4971,22 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4761,13 +4995,13 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -4784,19 +5018,22 @@
       <c r="W78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -4805,13 +5042,13 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -4828,19 +5065,22 @@
       <c r="W79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -4849,13 +5089,13 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -4872,19 +5112,22 @@
       <c r="W80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -4893,13 +5136,13 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -4916,19 +5159,22 @@
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -4937,13 +5183,13 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -4960,19 +5206,22 @@
       <c r="W82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -4981,13 +5230,13 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M83" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5004,19 +5253,22 @@
       <c r="W83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -5025,13 +5277,13 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M84" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -5048,19 +5300,22 @@
       <c r="W84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -5069,13 +5324,13 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -5092,19 +5347,22 @@
       <c r="W85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -5113,13 +5371,13 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -5136,19 +5394,22 @@
       <c r="W86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -5157,13 +5418,13 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -5180,19 +5441,22 @@
       <c r="W87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -5201,13 +5465,13 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -5224,19 +5488,22 @@
       <c r="W88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -5245,13 +5512,13 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -5268,19 +5535,22 @@
       <c r="W89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -5289,13 +5559,13 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -5312,19 +5582,22 @@
       <c r="W90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -5333,13 +5606,13 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -5356,19 +5629,22 @@
       <c r="W91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -5377,13 +5653,13 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -5400,19 +5676,22 @@
       <c r="W92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -5421,13 +5700,13 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -5444,19 +5723,22 @@
       <c r="W93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -5465,13 +5747,13 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -5488,19 +5770,22 @@
       <c r="W94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -5509,13 +5794,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M95" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -5532,19 +5817,22 @@
       <c r="W95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -5553,13 +5841,13 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -5576,19 +5864,22 @@
       <c r="W96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -5597,13 +5888,13 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -5620,19 +5911,22 @@
       <c r="W97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -5641,13 +5935,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -5664,19 +5958,22 @@
       <c r="W98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -5685,13 +5982,13 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -5708,19 +6005,22 @@
       <c r="W99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -5729,13 +6029,13 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M100" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -5752,19 +6052,22 @@
       <c r="W100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -5773,13 +6076,13 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M101" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -5796,19 +6099,22 @@
       <c r="W101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -5817,13 +6123,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M102" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P102" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -5840,19 +6146,22 @@
       <c r="W102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -5861,13 +6170,13 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M103" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -5884,19 +6193,22 @@
       <c r="W103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -5905,13 +6217,13 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -5928,19 +6240,22 @@
       <c r="W104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -5949,13 +6264,13 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -5972,19 +6287,22 @@
       <c r="W105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -5993,13 +6311,13 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -6016,19 +6334,22 @@
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -6037,13 +6358,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -6060,19 +6381,22 @@
       <c r="W107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -6081,13 +6405,13 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -6104,19 +6428,22 @@
       <c r="W108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -6125,13 +6452,13 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -6148,19 +6475,22 @@
       <c r="W109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -6169,13 +6499,13 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -6192,19 +6522,22 @@
       <c r="W110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -6213,13 +6546,13 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -6236,19 +6569,22 @@
       <c r="W111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -6257,13 +6593,13 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -6280,19 +6616,22 @@
       <c r="W112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -6301,13 +6640,13 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -6324,19 +6663,22 @@
       <c r="W113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6345,13 +6687,13 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -6368,19 +6710,22 @@
       <c r="W114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -6389,13 +6734,13 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -6412,19 +6757,22 @@
       <c r="W115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -6433,13 +6781,13 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -6456,19 +6804,22 @@
       <c r="W116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -6477,13 +6828,13 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -6500,19 +6851,22 @@
       <c r="W117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -6521,13 +6875,13 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -6544,19 +6898,22 @@
       <c r="W118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -6565,13 +6922,13 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -6588,19 +6945,22 @@
       <c r="W119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -6609,13 +6969,13 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -6632,19 +6992,22 @@
       <c r="W120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -6653,13 +7016,13 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M121" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -6676,19 +7039,22 @@
       <c r="W121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -6697,13 +7063,13 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M122" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -6720,19 +7086,22 @@
       <c r="W122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -6741,13 +7110,13 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M123" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -6764,19 +7133,22 @@
       <c r="W123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -6785,13 +7157,13 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M124" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -6808,19 +7180,22 @@
       <c r="W124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -6829,13 +7204,13 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M125" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -6852,19 +7227,22 @@
       <c r="W125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -6873,13 +7251,13 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M126" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -6896,19 +7274,22 @@
       <c r="W126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -6917,13 +7298,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M127" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -6940,19 +7321,22 @@
       <c r="W127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -6961,13 +7345,13 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M128" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -6984,19 +7368,22 @@
       <c r="W128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -7005,13 +7392,13 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M129" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -7028,19 +7415,22 @@
       <c r="W129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -7049,13 +7439,13 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -7072,19 +7462,22 @@
       <c r="W130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -7093,13 +7486,13 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -7116,19 +7509,22 @@
       <c r="W131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -7137,13 +7533,13 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -7160,19 +7556,22 @@
       <c r="W132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -7181,13 +7580,13 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -7204,19 +7603,22 @@
       <c r="W133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -7225,13 +7627,13 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M134" s="2">
         <v>45043.91625</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -7248,19 +7650,22 @@
       <c r="W134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -7269,13 +7674,13 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M135" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -7292,19 +7697,22 @@
       <c r="W135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -7313,13 +7721,13 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M136" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -7336,19 +7744,22 @@
       <c r="W136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -7357,13 +7768,13 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M137" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -7380,19 +7791,22 @@
       <c r="W137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -7401,13 +7815,13 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M138" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -7424,19 +7838,22 @@
       <c r="W138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -7445,13 +7862,13 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M139" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -7468,19 +7885,22 @@
       <c r="W139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -7489,13 +7909,13 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M140" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -7512,19 +7932,22 @@
       <c r="W140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -7533,13 +7956,13 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M141" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -7556,19 +7979,22 @@
       <c r="W141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -7577,13 +8003,13 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M142" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -7600,19 +8026,22 @@
       <c r="W142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -7621,13 +8050,13 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M143" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -7644,19 +8073,22 @@
       <c r="W143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -7665,13 +8097,13 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M144" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -7688,19 +8120,22 @@
       <c r="W144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -7709,13 +8144,13 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M145" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -7732,19 +8167,22 @@
       <c r="W145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -7753,13 +8191,13 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M146" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -7776,19 +8214,22 @@
       <c r="W146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -7797,13 +8238,13 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M147" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -7820,19 +8261,22 @@
       <c r="W147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -7841,13 +8285,13 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M148" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -7864,19 +8308,22 @@
       <c r="W148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -7885,13 +8332,13 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M149" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -7908,19 +8355,22 @@
       <c r="W149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -7929,13 +8379,13 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M150" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -7952,19 +8402,22 @@
       <c r="W150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -7973,13 +8426,13 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M151" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -7996,19 +8449,22 @@
       <c r="W151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -8017,13 +8473,13 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M152" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -8040,19 +8496,22 @@
       <c r="W152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -8061,13 +8520,13 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M153" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -8084,19 +8543,22 @@
       <c r="W153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -8105,13 +8567,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M154" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S154">
         <v>0</v>
@@ -8128,19 +8590,22 @@
       <c r="W154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -8149,13 +8614,13 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M155" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -8172,19 +8637,22 @@
       <c r="W155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -8193,13 +8661,13 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M156" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S156">
         <v>0</v>
@@ -8216,19 +8684,22 @@
       <c r="W156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -8237,13 +8708,13 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M157" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -8260,19 +8731,22 @@
       <c r="W157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -8281,13 +8755,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M158" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S158">
         <v>0</v>
@@ -8304,19 +8778,22 @@
       <c r="W158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -8325,13 +8802,13 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M159" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -8348,19 +8825,22 @@
       <c r="W159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -8369,13 +8849,13 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M160" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -8392,19 +8872,22 @@
       <c r="W160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -8413,13 +8896,13 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M161" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -8436,19 +8919,22 @@
       <c r="W161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -8457,13 +8943,13 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M162" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -8480,19 +8966,22 @@
       <c r="W162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -8501,13 +8990,13 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M163" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S163">
         <v>0</v>
@@ -8524,19 +9013,22 @@
       <c r="W163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -8545,13 +9037,13 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S164">
         <v>0</v>
@@ -8568,19 +9060,22 @@
       <c r="W164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -8589,13 +9084,13 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S165">
         <v>0</v>
@@ -8612,19 +9107,22 @@
       <c r="W165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -8633,13 +9131,13 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S166">
         <v>0</v>
@@ -8656,19 +9154,22 @@
       <c r="W166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -8677,13 +9178,13 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -8700,19 +9201,22 @@
       <c r="W167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -8721,13 +9225,13 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -8744,19 +9248,22 @@
       <c r="W168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -8765,13 +9272,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M169" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -8788,19 +9295,22 @@
       <c r="W169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -8809,13 +9319,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M170" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S170">
         <v>0</v>
@@ -8832,19 +9342,22 @@
       <c r="W170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="X170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -8853,13 +9366,13 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M171" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -8876,19 +9389,22 @@
       <c r="W171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -8897,13 +9413,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M172" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -8920,19 +9436,22 @@
       <c r="W172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -8941,13 +9460,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M173" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -8964,19 +9483,22 @@
       <c r="W173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -8985,13 +9507,13 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M174" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -9008,19 +9530,22 @@
       <c r="W174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -9029,13 +9554,13 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M175" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S175">
         <v>0</v>
@@ -9052,19 +9577,22 @@
       <c r="W175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -9073,13 +9601,13 @@
         <v>107</v>
       </c>
       <c r="L176" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M176" s="2">
         <v>45045.17372685186</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -9096,19 +9624,22 @@
       <c r="W176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -9117,13 +9648,13 @@
         <v>109</v>
       </c>
       <c r="L177" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M177" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="P177" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -9140,19 +9671,22 @@
       <c r="W177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J178">
         <v>64</v>
@@ -9161,13 +9695,13 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M178" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -9184,19 +9718,22 @@
       <c r="W178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -9205,13 +9742,13 @@
         <v>110</v>
       </c>
       <c r="L179" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M179" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -9228,19 +9765,22 @@
       <c r="W179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -9249,13 +9789,13 @@
         <v>111</v>
       </c>
       <c r="L180" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M180" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -9272,19 +9812,22 @@
       <c r="W180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -9293,13 +9836,13 @@
         <v>113</v>
       </c>
       <c r="L181" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M181" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -9316,19 +9859,22 @@
       <c r="W181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="X181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -9337,13 +9883,13 @@
         <v>114</v>
       </c>
       <c r="L182" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M182" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="P182" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -9360,19 +9906,22 @@
       <c r="W182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -9381,13 +9930,13 @@
         <v>115</v>
       </c>
       <c r="L183" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M183" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -9404,19 +9953,22 @@
       <c r="W183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J184">
         <v>69</v>
@@ -9425,13 +9977,13 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M184" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -9448,19 +10000,22 @@
       <c r="W184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J185">
         <v>69</v>
@@ -9469,13 +10024,13 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M185" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -9492,19 +10047,22 @@
       <c r="W185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -9513,13 +10071,13 @@
         <v>117</v>
       </c>
       <c r="L186" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M186" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P186" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -9536,19 +10094,22 @@
       <c r="W186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -9557,13 +10118,13 @@
         <v>118</v>
       </c>
       <c r="L187" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M187" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="P187" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S187">
         <v>0</v>
@@ -9580,19 +10141,22 @@
       <c r="W187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J188">
         <v>71</v>
@@ -9601,13 +10165,13 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M188" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P188" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -9624,19 +10188,22 @@
       <c r="W188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J189">
         <v>71</v>
@@ -9645,13 +10212,13 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M189" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P189" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -9668,19 +10235,22 @@
       <c r="W189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J190">
         <v>71</v>
@@ -9689,13 +10259,13 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M190" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -9712,19 +10282,22 @@
       <c r="W190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J191">
         <v>71</v>
@@ -9733,13 +10306,13 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M191" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -9756,19 +10329,22 @@
       <c r="W191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J192">
         <v>71</v>
@@ -9777,13 +10353,13 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M192" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S192">
         <v>0</v>
@@ -9800,19 +10376,22 @@
       <c r="W192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J193">
         <v>71</v>
@@ -9821,13 +10400,13 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M193" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P193" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S193">
         <v>0</v>
@@ -9844,19 +10423,22 @@
       <c r="W193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J194">
         <v>71</v>
@@ -9865,13 +10447,13 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -9888,19 +10470,22 @@
       <c r="W194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J195">
         <v>71</v>
@@ -9909,13 +10494,13 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P195" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S195">
         <v>0</v>
@@ -9932,19 +10517,22 @@
       <c r="W195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J196">
         <v>71</v>
@@ -9953,13 +10541,13 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -9976,19 +10564,22 @@
       <c r="W196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J197">
         <v>71</v>
@@ -9997,13 +10588,13 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S197">
         <v>0</v>
@@ -10020,19 +10611,22 @@
       <c r="W197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J198">
         <v>71</v>
@@ -10041,13 +10635,13 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -10064,19 +10658,22 @@
       <c r="W198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H199">
         <v>198</v>
       </c>
       <c r="I199" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J199">
         <v>71</v>
@@ -10085,13 +10682,13 @@
         <v>119</v>
       </c>
       <c r="L199" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M199" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S199">
         <v>0</v>
@@ -10106,6 +10703,9 @@
         <v>0</v>
       </c>
       <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="291">
   <si>
     <t>p17_can</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1323,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X198"/>
+  <dimension ref="A1:V198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,25 +1390,19 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1423,13 +1411,13 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="P2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1443,25 +1431,19 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1470,13 +1452,13 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1490,25 +1472,19 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1517,13 +1493,13 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="P4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1537,25 +1513,19 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1564,13 +1534,13 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="P5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1584,25 +1554,19 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1611,13 +1575,13 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1631,25 +1595,19 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1658,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="P7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1678,25 +1636,19 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1705,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1725,25 +1677,19 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1752,13 +1698,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1772,25 +1718,19 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1799,13 +1739,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M10" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="P10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1819,25 +1759,19 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1846,13 +1780,13 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1866,25 +1800,19 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1893,13 +1821,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1913,25 +1841,19 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1940,13 +1862,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1960,25 +1882,19 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1987,13 +1903,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2007,25 +1923,19 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -2034,13 +1944,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2054,25 +1964,19 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -2081,13 +1985,13 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2101,25 +2005,19 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -2128,13 +2026,13 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2148,25 +2046,19 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -2175,13 +2067,13 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2195,25 +2087,19 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2222,13 +2108,13 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2242,25 +2128,19 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2269,13 +2149,13 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2289,25 +2169,19 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2316,13 +2190,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2336,25 +2210,19 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2363,13 +2231,13 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2383,25 +2251,19 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2410,13 +2272,13 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2430,25 +2292,19 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2457,13 +2313,13 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2477,25 +2333,19 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2504,13 +2354,13 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2524,25 +2374,19 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2551,13 +2395,13 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2571,25 +2415,19 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2598,13 +2436,13 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2618,25 +2456,19 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2645,13 +2477,13 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2665,25 +2497,19 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2692,13 +2518,13 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2712,25 +2538,19 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2739,13 +2559,13 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2759,25 +2579,19 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2786,13 +2600,13 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M31" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2806,25 +2620,19 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2833,13 +2641,13 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2853,25 +2661,19 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2880,13 +2682,13 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M33" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2900,25 +2702,19 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2927,13 +2723,13 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M34" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2947,25 +2743,19 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2974,13 +2764,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M35" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2994,25 +2784,19 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -3021,13 +2805,13 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3041,25 +2825,19 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -3068,13 +2846,13 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3088,25 +2866,19 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -3115,13 +2887,13 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3135,25 +2907,19 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -3162,13 +2928,13 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3182,25 +2948,19 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -3209,13 +2969,13 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M40" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3229,25 +2989,19 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -3256,13 +3010,13 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M41" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3276,25 +3030,19 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -3303,13 +3051,13 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3323,25 +3071,19 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -3350,13 +3092,13 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3370,25 +3112,19 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -3397,13 +3133,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3417,25 +3153,19 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -3444,13 +3174,13 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M45" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3464,25 +3194,19 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -3491,13 +3215,13 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M46" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3511,25 +3235,19 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -3538,13 +3256,13 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M47" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3558,25 +3276,19 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3585,13 +3297,13 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3605,25 +3317,19 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3632,13 +3338,13 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="P49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3652,25 +3358,19 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3679,13 +3379,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3699,25 +3399,19 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3726,13 +3420,13 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3746,25 +3440,19 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3773,13 +3461,13 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3793,25 +3481,19 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3820,13 +3502,13 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M53" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3840,25 +3522,19 @@
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3867,13 +3543,13 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M54" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3887,25 +3563,19 @@
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3914,13 +3584,13 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M55" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3934,25 +3604,19 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3961,13 +3625,13 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M56" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -3981,25 +3645,19 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -4008,13 +3666,13 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M57" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -4028,25 +3686,19 @@
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -4055,13 +3707,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M58" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4075,25 +3727,19 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -4102,13 +3748,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M59" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="P59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -4122,25 +3768,19 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -4149,13 +3789,13 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -4169,25 +3809,19 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -4196,13 +3830,13 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4216,25 +3850,19 @@
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -4243,13 +3871,13 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4263,25 +3891,19 @@
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -4290,13 +3912,13 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -4310,25 +3932,19 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -4337,13 +3953,13 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -4357,22 +3973,16 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+    </row>
+    <row r="65" spans="1:22">
       <c r="B65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -4381,13 +3991,13 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M65" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="P65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4401,25 +4011,19 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -4428,13 +4032,13 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M66" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4448,25 +4052,19 @@
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -4475,13 +4073,13 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M67" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4495,25 +4093,19 @@
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -4522,13 +4114,13 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4542,25 +4134,19 @@
       <c r="V68">
         <v>0</v>
       </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -4569,13 +4155,13 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -4589,25 +4175,19 @@
       <c r="V69">
         <v>0</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -4616,13 +4196,13 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4636,25 +4216,19 @@
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -4663,13 +4237,13 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4683,25 +4257,19 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -4710,13 +4278,13 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M72" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4730,25 +4298,19 @@
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -4757,13 +4319,13 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4777,25 +4339,19 @@
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -4804,13 +4360,13 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4824,25 +4380,19 @@
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -4851,13 +4401,13 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4871,25 +4421,19 @@
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4898,13 +4442,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -4918,25 +4462,19 @@
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4945,13 +4483,13 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -4965,25 +4503,19 @@
       <c r="V77">
         <v>0</v>
       </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4992,13 +4524,13 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -5012,25 +4544,19 @@
       <c r="V78">
         <v>0</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -5039,13 +4565,13 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -5059,25 +4585,19 @@
       <c r="V79">
         <v>0</v>
       </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -5086,13 +4606,13 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5106,25 +4626,19 @@
       <c r="V80">
         <v>0</v>
       </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -5133,13 +4647,13 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5153,25 +4667,19 @@
       <c r="V81">
         <v>0</v>
       </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -5180,13 +4688,13 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -5200,25 +4708,19 @@
       <c r="V82">
         <v>0</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -5227,13 +4729,13 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M83" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5247,25 +4749,19 @@
       <c r="V83">
         <v>0</v>
       </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -5274,13 +4770,13 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M84" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -5294,25 +4790,19 @@
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -5321,13 +4811,13 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -5341,25 +4831,19 @@
       <c r="V85">
         <v>0</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -5368,13 +4852,13 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -5388,25 +4872,19 @@
       <c r="V86">
         <v>0</v>
       </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -5415,13 +4893,13 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -5435,25 +4913,19 @@
       <c r="V87">
         <v>0</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -5462,13 +4934,13 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -5482,25 +4954,19 @@
       <c r="V88">
         <v>0</v>
       </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -5509,13 +4975,13 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -5529,25 +4995,19 @@
       <c r="V89">
         <v>0</v>
       </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -5556,13 +5016,13 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -5576,25 +5036,19 @@
       <c r="V90">
         <v>0</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -5603,13 +5057,13 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -5623,25 +5077,19 @@
       <c r="V91">
         <v>0</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -5650,13 +5098,13 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -5670,25 +5118,19 @@
       <c r="V92">
         <v>0</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -5697,13 +5139,13 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -5717,25 +5159,19 @@
       <c r="V93">
         <v>0</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -5744,13 +5180,13 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -5764,25 +5200,19 @@
       <c r="V94">
         <v>0</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -5791,13 +5221,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M95" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -5811,25 +5241,19 @@
       <c r="V95">
         <v>0</v>
       </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -5838,13 +5262,13 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -5858,25 +5282,19 @@
       <c r="V96">
         <v>0</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -5885,13 +5303,13 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -5905,25 +5323,19 @@
       <c r="V97">
         <v>0</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -5932,13 +5344,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -5952,25 +5364,19 @@
       <c r="V98">
         <v>0</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -5979,13 +5385,13 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -5999,25 +5405,19 @@
       <c r="V99">
         <v>0</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -6026,13 +5426,13 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M100" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -6046,25 +5446,19 @@
       <c r="V100">
         <v>0</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -6073,13 +5467,13 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M101" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -6093,25 +5487,19 @@
       <c r="V101">
         <v>0</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -6120,13 +5508,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M102" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -6140,25 +5528,19 @@
       <c r="V102">
         <v>0</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -6167,13 +5549,13 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M103" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -6187,25 +5569,19 @@
       <c r="V103">
         <v>0</v>
       </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -6214,13 +5590,13 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -6234,25 +5610,19 @@
       <c r="V104">
         <v>0</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -6261,13 +5631,13 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -6281,25 +5651,19 @@
       <c r="V105">
         <v>0</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -6308,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -6328,25 +5692,19 @@
       <c r="V106">
         <v>0</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -6355,13 +5713,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -6375,25 +5733,19 @@
       <c r="V107">
         <v>0</v>
       </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -6402,13 +5754,13 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -6422,25 +5774,19 @@
       <c r="V108">
         <v>0</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -6449,13 +5795,13 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -6469,25 +5815,19 @@
       <c r="V109">
         <v>0</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -6496,13 +5836,13 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -6516,25 +5856,19 @@
       <c r="V110">
         <v>0</v>
       </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -6543,13 +5877,13 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -6563,25 +5897,19 @@
       <c r="V111">
         <v>0</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -6590,13 +5918,13 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -6610,25 +5938,19 @@
       <c r="V112">
         <v>0</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -6637,13 +5959,13 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -6657,25 +5979,19 @@
       <c r="V113">
         <v>0</v>
       </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6684,13 +6000,13 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -6704,25 +6020,19 @@
       <c r="V114">
         <v>0</v>
       </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -6731,13 +6041,13 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -6751,25 +6061,19 @@
       <c r="V115">
         <v>0</v>
       </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -6778,13 +6082,13 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -6798,25 +6102,19 @@
       <c r="V116">
         <v>0</v>
       </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -6825,13 +6123,13 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -6845,25 +6143,19 @@
       <c r="V117">
         <v>0</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -6872,13 +6164,13 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P118" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -6892,25 +6184,19 @@
       <c r="V118">
         <v>0</v>
       </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -6919,13 +6205,13 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -6939,25 +6225,19 @@
       <c r="V119">
         <v>0</v>
       </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -6966,13 +6246,13 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -6986,25 +6266,19 @@
       <c r="V120">
         <v>0</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -7013,13 +6287,13 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M121" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -7033,25 +6307,19 @@
       <c r="V121">
         <v>0</v>
       </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -7060,13 +6328,13 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M122" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -7080,25 +6348,19 @@
       <c r="V122">
         <v>0</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24">
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -7107,13 +6369,13 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M123" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -7127,25 +6389,19 @@
       <c r="V123">
         <v>0</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -7154,13 +6410,13 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M124" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -7174,25 +6430,19 @@
       <c r="V124">
         <v>0</v>
       </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -7201,13 +6451,13 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M125" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -7221,25 +6471,19 @@
       <c r="V125">
         <v>0</v>
       </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -7248,13 +6492,13 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M126" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -7268,25 +6512,19 @@
       <c r="V126">
         <v>0</v>
       </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-      <c r="X126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -7295,13 +6533,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M127" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -7315,25 +6553,19 @@
       <c r="V127">
         <v>0</v>
       </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -7342,13 +6574,13 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M128" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -7362,25 +6594,19 @@
       <c r="V128">
         <v>0</v>
       </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-      <c r="X128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -7389,13 +6615,13 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M129" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -7409,25 +6635,19 @@
       <c r="V129">
         <v>0</v>
       </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -7436,13 +6656,13 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -7456,25 +6676,19 @@
       <c r="V130">
         <v>0</v>
       </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -7483,13 +6697,13 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -7503,25 +6717,19 @@
       <c r="V131">
         <v>0</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -7530,13 +6738,13 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -7550,25 +6758,19 @@
       <c r="V132">
         <v>0</v>
       </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -7577,13 +6779,13 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -7597,25 +6799,19 @@
       <c r="V133">
         <v>0</v>
       </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-      <c r="X133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -7624,13 +6820,13 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M134" s="2">
         <v>45043.91625</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -7644,25 +6840,19 @@
       <c r="V134">
         <v>0</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -7671,13 +6861,13 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M135" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -7691,25 +6881,19 @@
       <c r="V135">
         <v>0</v>
       </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -7718,13 +6902,13 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M136" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -7738,25 +6922,19 @@
       <c r="V136">
         <v>0</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -7765,13 +6943,13 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M137" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -7785,25 +6963,19 @@
       <c r="V137">
         <v>0</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -7812,13 +6984,13 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M138" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -7832,25 +7004,19 @@
       <c r="V138">
         <v>0</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -7859,13 +7025,13 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M139" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -7879,25 +7045,19 @@
       <c r="V139">
         <v>0</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -7906,13 +7066,13 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M140" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -7926,25 +7086,19 @@
       <c r="V140">
         <v>0</v>
       </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24">
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -7953,13 +7107,13 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M141" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -7973,25 +7127,19 @@
       <c r="V141">
         <v>0</v>
       </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -8000,13 +7148,13 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M142" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -8020,25 +7168,19 @@
       <c r="V142">
         <v>0</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24">
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -8047,13 +7189,13 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M143" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -8067,25 +7209,19 @@
       <c r="V143">
         <v>0</v>
       </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24">
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -8094,13 +7230,13 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M144" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -8114,25 +7250,19 @@
       <c r="V144">
         <v>0</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24">
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -8141,13 +7271,13 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M145" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -8161,25 +7291,19 @@
       <c r="V145">
         <v>0</v>
       </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24">
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -8188,13 +7312,13 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M146" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -8208,25 +7332,19 @@
       <c r="V146">
         <v>0</v>
       </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24">
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -8235,13 +7353,13 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M147" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -8255,25 +7373,19 @@
       <c r="V147">
         <v>0</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24">
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -8282,13 +7394,13 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M148" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -8302,25 +7414,19 @@
       <c r="V148">
         <v>0</v>
       </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24">
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -8329,13 +7435,13 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M149" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -8349,25 +7455,19 @@
       <c r="V149">
         <v>0</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24">
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -8376,13 +7476,13 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M150" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -8396,25 +7496,19 @@
       <c r="V150">
         <v>0</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24">
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -8423,13 +7517,13 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M151" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -8443,25 +7537,19 @@
       <c r="V151">
         <v>0</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24">
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -8470,13 +7558,13 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M152" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -8490,25 +7578,19 @@
       <c r="V152">
         <v>0</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24">
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -8517,13 +7599,13 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M153" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -8537,25 +7619,19 @@
       <c r="V153">
         <v>0</v>
       </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24">
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -8564,13 +7640,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M154" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S154">
         <v>0</v>
@@ -8584,25 +7660,19 @@
       <c r="V154">
         <v>0</v>
       </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24">
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -8611,13 +7681,13 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M155" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -8631,25 +7701,19 @@
       <c r="V155">
         <v>0</v>
       </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24">
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -8658,13 +7722,13 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M156" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S156">
         <v>0</v>
@@ -8678,25 +7742,19 @@
       <c r="V156">
         <v>0</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24">
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -8705,13 +7763,13 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M157" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -8725,25 +7783,19 @@
       <c r="V157">
         <v>0</v>
       </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24">
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -8752,13 +7804,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M158" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S158">
         <v>0</v>
@@ -8772,25 +7824,19 @@
       <c r="V158">
         <v>0</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24">
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -8799,13 +7845,13 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M159" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -8819,25 +7865,19 @@
       <c r="V159">
         <v>0</v>
       </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24">
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -8846,13 +7886,13 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M160" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -8866,25 +7906,19 @@
       <c r="V160">
         <v>0</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24">
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -8893,13 +7927,13 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M161" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -8913,25 +7947,19 @@
       <c r="V161">
         <v>0</v>
       </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -8940,13 +7968,13 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M162" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -8960,25 +7988,19 @@
       <c r="V162">
         <v>0</v>
       </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24">
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -8987,13 +8009,13 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M163" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S163">
         <v>0</v>
@@ -9007,25 +8029,19 @@
       <c r="V163">
         <v>0</v>
       </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24">
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B164" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -9034,13 +8050,13 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S164">
         <v>0</v>
@@ -9054,25 +8070,19 @@
       <c r="V164">
         <v>0</v>
       </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24">
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -9081,13 +8091,13 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P165" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S165">
         <v>0</v>
@@ -9101,25 +8111,19 @@
       <c r="V165">
         <v>0</v>
       </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24">
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B166" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -9128,13 +8132,13 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S166">
         <v>0</v>
@@ -9148,25 +8152,19 @@
       <c r="V166">
         <v>0</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24">
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -9175,13 +8173,13 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -9195,25 +8193,19 @@
       <c r="V167">
         <v>0</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24">
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B168" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -9222,13 +8214,13 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -9242,25 +8234,19 @@
       <c r="V168">
         <v>0</v>
       </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24">
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -9269,13 +8255,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M169" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -9289,25 +8275,19 @@
       <c r="V169">
         <v>0</v>
       </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24">
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -9316,13 +8296,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M170" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S170">
         <v>0</v>
@@ -9336,25 +8316,19 @@
       <c r="V170">
         <v>0</v>
       </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24">
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -9363,13 +8337,13 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M171" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P171" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -9383,25 +8357,19 @@
       <c r="V171">
         <v>0</v>
       </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24">
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -9410,13 +8378,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M172" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -9430,25 +8398,19 @@
       <c r="V172">
         <v>0</v>
       </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:24">
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -9457,13 +8419,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M173" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -9477,25 +8439,19 @@
       <c r="V173">
         <v>0</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24">
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -9504,13 +8460,13 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M174" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -9524,25 +8480,19 @@
       <c r="V174">
         <v>0</v>
       </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24">
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B175" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -9551,13 +8501,13 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M175" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S175">
         <v>0</v>
@@ -9571,25 +8521,19 @@
       <c r="V175">
         <v>0</v>
       </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24">
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -9598,13 +8542,13 @@
         <v>109</v>
       </c>
       <c r="L176" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M176" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -9618,25 +8562,19 @@
       <c r="V176">
         <v>0</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24">
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -9645,13 +8583,13 @@
         <v>110</v>
       </c>
       <c r="L177" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M177" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P177" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -9665,25 +8603,19 @@
       <c r="V177">
         <v>0</v>
       </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24">
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J178">
         <v>63</v>
@@ -9692,13 +8624,13 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M178" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P178" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -9712,25 +8644,19 @@
       <c r="V178">
         <v>0</v>
       </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24">
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B179" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -9739,13 +8665,13 @@
         <v>111</v>
       </c>
       <c r="L179" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M179" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -9759,25 +8685,19 @@
       <c r="V179">
         <v>0</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:24">
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -9786,13 +8706,13 @@
         <v>113</v>
       </c>
       <c r="L180" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M180" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -9806,25 +8726,19 @@
       <c r="V180">
         <v>0</v>
       </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24">
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -9833,13 +8747,13 @@
         <v>114</v>
       </c>
       <c r="L181" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M181" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -9853,25 +8767,19 @@
       <c r="V181">
         <v>0</v>
       </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:24">
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -9880,13 +8788,13 @@
         <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M182" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="P182" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -9900,25 +8808,19 @@
       <c r="V182">
         <v>0</v>
       </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:24">
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B183" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -9927,13 +8829,13 @@
         <v>117</v>
       </c>
       <c r="L183" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M183" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P183" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -9947,25 +8849,19 @@
       <c r="V183">
         <v>0</v>
       </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24">
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J184">
         <v>68</v>
@@ -9974,13 +8870,13 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M184" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -9994,25 +8890,19 @@
       <c r="V184">
         <v>0</v>
       </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24">
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J185">
         <v>68</v>
@@ -10021,13 +8911,13 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M185" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P185" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -10041,25 +8931,19 @@
       <c r="V185">
         <v>0</v>
       </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:24">
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -10068,13 +8952,13 @@
         <v>118</v>
       </c>
       <c r="L186" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M186" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="P186" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -10088,25 +8972,19 @@
       <c r="V186">
         <v>0</v>
       </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:24">
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -10115,13 +8993,13 @@
         <v>119</v>
       </c>
       <c r="L187" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M187" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P187" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S187">
         <v>0</v>
@@ -10135,25 +9013,19 @@
       <c r="V187">
         <v>0</v>
       </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-      <c r="X187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:24">
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J188">
         <v>70</v>
@@ -10162,13 +9034,13 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M188" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P188" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -10182,25 +9054,19 @@
       <c r="V188">
         <v>0</v>
       </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:24">
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J189">
         <v>70</v>
@@ -10209,13 +9075,13 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M189" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P189" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -10229,25 +9095,19 @@
       <c r="V189">
         <v>0</v>
       </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:24">
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J190">
         <v>70</v>
@@ -10256,13 +9116,13 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M190" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -10276,25 +9136,19 @@
       <c r="V190">
         <v>0</v>
       </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24">
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J191">
         <v>70</v>
@@ -10303,13 +9157,13 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M191" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -10323,25 +9177,19 @@
       <c r="V191">
         <v>0</v>
       </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24">
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J192">
         <v>70</v>
@@ -10350,13 +9198,13 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M192" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P192" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S192">
         <v>0</v>
@@ -10370,25 +9218,19 @@
       <c r="V192">
         <v>0</v>
       </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24">
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J193">
         <v>70</v>
@@ -10397,13 +9239,13 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M193" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P193" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S193">
         <v>0</v>
@@ -10417,25 +9259,19 @@
       <c r="V193">
         <v>0</v>
       </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24">
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J194">
         <v>70</v>
@@ -10444,13 +9280,13 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P194" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -10464,25 +9300,19 @@
       <c r="V194">
         <v>0</v>
       </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24">
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J195">
         <v>70</v>
@@ -10491,13 +9321,13 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P195" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S195">
         <v>0</v>
@@ -10511,25 +9341,19 @@
       <c r="V195">
         <v>0</v>
       </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24">
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J196">
         <v>70</v>
@@ -10538,13 +9362,13 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P196" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -10558,25 +9382,19 @@
       <c r="V196">
         <v>0</v>
       </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24">
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J197">
         <v>70</v>
@@ -10585,13 +9403,13 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P197" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S197">
         <v>0</v>
@@ -10605,25 +9423,19 @@
       <c r="V197">
         <v>0</v>
       </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:24">
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J198">
         <v>70</v>
@@ -10632,13 +9444,13 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P198" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -10650,12 +9462,6 @@
         <v>0</v>
       </c>
       <c r="V198">
-        <v>0</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="292">
   <si>
     <t>p17_can</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1317,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V198"/>
+  <dimension ref="A1:W198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,19 +1393,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1411,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="P2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1431,19 +1437,22 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1452,13 +1461,13 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="P3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1472,19 +1481,22 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1493,13 +1505,13 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="P4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1513,19 +1525,22 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1534,13 +1549,13 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="P5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1554,19 +1569,22 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1575,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1595,19 +1613,22 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1616,13 +1637,13 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1636,19 +1657,22 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1657,13 +1681,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1677,19 +1701,22 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1698,13 +1725,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1718,19 +1745,22 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1739,13 +1769,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M10" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="P10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1759,19 +1789,22 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1780,13 +1813,13 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1800,19 +1833,22 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1821,13 +1857,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1841,19 +1877,22 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1862,13 +1901,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1882,19 +1921,22 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1903,13 +1945,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1923,19 +1965,22 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1944,13 +1989,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1964,19 +2009,22 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1985,13 +2033,13 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="P16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2005,19 +2053,22 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -2026,13 +2077,13 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2046,19 +2097,22 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -2067,13 +2121,13 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2087,19 +2141,22 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2108,13 +2165,13 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2128,19 +2185,22 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2149,13 +2209,13 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2169,19 +2229,22 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2190,13 +2253,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2210,19 +2273,22 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2231,13 +2297,13 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2251,19 +2317,22 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2272,13 +2341,13 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2292,19 +2361,22 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2313,13 +2385,13 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2333,19 +2405,22 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2354,13 +2429,13 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2374,19 +2449,22 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2395,13 +2473,13 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2415,19 +2493,22 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2436,13 +2517,13 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2456,19 +2537,22 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2477,13 +2561,13 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2497,19 +2581,22 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2518,13 +2605,13 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2538,19 +2625,22 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2559,13 +2649,13 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2579,19 +2669,22 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2600,13 +2693,13 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M31" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2620,19 +2713,22 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2641,13 +2737,13 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2661,19 +2757,22 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2682,13 +2781,13 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M33" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2702,19 +2801,22 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2723,13 +2825,13 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M34" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2743,19 +2845,22 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2764,13 +2869,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2784,19 +2889,22 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -2805,13 +2913,13 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2825,19 +2933,22 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -2846,13 +2957,13 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2866,19 +2977,22 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -2887,13 +3001,13 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -2907,19 +3021,22 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -2928,13 +3045,13 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -2948,19 +3065,22 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -2969,13 +3089,13 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -2989,19 +3109,22 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -3010,13 +3133,13 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M41" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3030,19 +3153,22 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -3051,13 +3177,13 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3071,19 +3197,22 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -3092,13 +3221,13 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3112,19 +3241,22 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -3133,13 +3265,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3153,19 +3285,22 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -3174,13 +3309,13 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M45" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3194,19 +3329,22 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -3215,13 +3353,13 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M46" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3235,19 +3373,22 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -3256,13 +3397,13 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M47" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3276,19 +3417,22 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3297,13 +3441,13 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="P48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3317,19 +3461,22 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3338,13 +3485,13 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3358,19 +3505,22 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3379,13 +3529,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3399,19 +3549,22 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3420,13 +3573,13 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3440,19 +3593,22 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3461,13 +3617,13 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3481,19 +3637,22 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3502,13 +3661,13 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M53" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3522,19 +3681,22 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3543,13 +3705,13 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M54" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3563,19 +3725,22 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3584,13 +3749,13 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M55" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="P55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3604,19 +3769,22 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3625,13 +3793,13 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M56" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -3645,19 +3813,22 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -3666,13 +3837,13 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M57" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3686,19 +3857,22 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -3707,13 +3881,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M58" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -3727,19 +3901,22 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -3748,13 +3925,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M59" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -3768,19 +3945,22 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -3789,13 +3969,13 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3809,19 +3989,22 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -3830,13 +4013,13 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -3850,19 +4033,22 @@
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -3871,13 +4057,13 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -3891,19 +4077,22 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -3912,13 +4101,13 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -3932,19 +4121,22 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -3953,13 +4145,13 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -3973,16 +4165,19 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="B65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -3991,13 +4186,13 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M65" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4011,19 +4206,22 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -4032,13 +4230,13 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M66" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4052,19 +4250,22 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -4073,13 +4274,13 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M67" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4093,19 +4294,22 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -4114,13 +4318,13 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4134,19 +4338,22 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -4155,13 +4362,13 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -4175,19 +4382,22 @@
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -4196,13 +4406,13 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4216,19 +4426,22 @@
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -4237,13 +4450,13 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4257,19 +4470,22 @@
       <c r="V71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -4278,13 +4494,13 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M72" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4298,19 +4514,22 @@
       <c r="V72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -4319,13 +4538,13 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4339,19 +4558,22 @@
       <c r="V73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -4360,13 +4582,13 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4380,19 +4602,22 @@
       <c r="V74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -4401,13 +4626,13 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4421,19 +4646,22 @@
       <c r="V75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4442,13 +4670,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -4462,19 +4690,22 @@
       <c r="V76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4483,13 +4714,13 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -4503,19 +4734,22 @@
       <c r="V77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4524,13 +4758,13 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P78" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -4544,19 +4778,22 @@
       <c r="V78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -4565,13 +4802,13 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -4585,19 +4822,22 @@
       <c r="V79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -4606,13 +4846,13 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -4626,19 +4866,22 @@
       <c r="V80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -4647,13 +4890,13 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -4667,19 +4910,22 @@
       <c r="V81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -4688,13 +4934,13 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -4708,19 +4954,22 @@
       <c r="V82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -4729,13 +4978,13 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M83" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -4749,19 +4998,22 @@
       <c r="V83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -4770,13 +5022,13 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M84" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -4790,19 +5042,22 @@
       <c r="V84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -4811,13 +5066,13 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -4831,19 +5086,22 @@
       <c r="V85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -4852,13 +5110,13 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -4872,19 +5130,22 @@
       <c r="V86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -4893,13 +5154,13 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -4913,19 +5174,22 @@
       <c r="V87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -4934,13 +5198,13 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P88" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -4954,19 +5218,22 @@
       <c r="V88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -4975,13 +5242,13 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P89" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -4995,19 +5262,22 @@
       <c r="V89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -5016,13 +5286,13 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -5036,19 +5306,22 @@
       <c r="V90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -5057,13 +5330,13 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -5077,19 +5350,22 @@
       <c r="V91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -5098,13 +5374,13 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -5118,19 +5394,22 @@
       <c r="V92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -5139,13 +5418,13 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="P93" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -5159,19 +5438,22 @@
       <c r="V93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -5180,13 +5462,13 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -5200,19 +5482,22 @@
       <c r="V94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -5221,13 +5506,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M95" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -5241,19 +5526,22 @@
       <c r="V95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -5262,13 +5550,13 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -5282,19 +5570,22 @@
       <c r="V96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -5303,13 +5594,13 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -5323,19 +5614,22 @@
       <c r="V97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -5344,13 +5638,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -5364,19 +5658,22 @@
       <c r="V98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -5385,13 +5682,13 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -5405,19 +5702,22 @@
       <c r="V99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -5426,13 +5726,13 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M100" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -5446,19 +5746,22 @@
       <c r="V100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -5467,13 +5770,13 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M101" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P101" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -5487,19 +5790,22 @@
       <c r="V101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -5508,13 +5814,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M102" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -5528,19 +5834,22 @@
       <c r="V102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -5549,13 +5858,13 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M103" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -5569,19 +5878,22 @@
       <c r="V103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -5590,13 +5902,13 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -5610,19 +5922,22 @@
       <c r="V104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -5631,13 +5946,13 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -5651,19 +5966,22 @@
       <c r="V105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -5672,13 +5990,13 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -5692,19 +6010,22 @@
       <c r="V106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -5713,13 +6034,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -5733,19 +6054,22 @@
       <c r="V107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -5754,13 +6078,13 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -5774,19 +6098,22 @@
       <c r="V108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -5795,13 +6122,13 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -5815,19 +6142,22 @@
       <c r="V109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -5836,13 +6166,13 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -5856,19 +6186,22 @@
       <c r="V110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -5877,13 +6210,13 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -5897,19 +6230,22 @@
       <c r="V111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -5918,13 +6254,13 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P112" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -5938,19 +6274,22 @@
       <c r="V112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -5959,13 +6298,13 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -5979,19 +6318,22 @@
       <c r="V113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6000,13 +6342,13 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -6020,19 +6362,22 @@
       <c r="V114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -6041,13 +6386,13 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -6061,19 +6406,22 @@
       <c r="V115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -6082,13 +6430,13 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -6102,19 +6450,22 @@
       <c r="V116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -6123,13 +6474,13 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -6143,19 +6494,22 @@
       <c r="V117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -6164,13 +6518,13 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -6184,19 +6538,22 @@
       <c r="V118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -6205,13 +6562,13 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -6225,19 +6582,22 @@
       <c r="V119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -6246,13 +6606,13 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -6266,19 +6626,22 @@
       <c r="V120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -6287,13 +6650,13 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M121" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -6307,19 +6670,22 @@
       <c r="V121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -6328,13 +6694,13 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M122" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -6348,19 +6714,22 @@
       <c r="V122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -6369,13 +6738,13 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M123" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -6389,19 +6758,22 @@
       <c r="V123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -6410,13 +6782,13 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M124" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -6430,19 +6802,22 @@
       <c r="V124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -6451,13 +6826,13 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M125" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -6471,19 +6846,22 @@
       <c r="V125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -6492,13 +6870,13 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M126" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -6512,19 +6890,22 @@
       <c r="V126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -6533,13 +6914,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M127" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -6553,19 +6934,22 @@
       <c r="V127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -6574,13 +6958,13 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M128" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -6594,19 +6978,22 @@
       <c r="V128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -6615,13 +7002,13 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M129" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -6635,19 +7022,22 @@
       <c r="V129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -6656,13 +7046,13 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -6676,19 +7066,22 @@
       <c r="V130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -6697,13 +7090,13 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -6717,19 +7110,22 @@
       <c r="V131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -6738,13 +7134,13 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -6758,19 +7154,22 @@
       <c r="V132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -6779,13 +7178,13 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -6799,19 +7198,22 @@
       <c r="V133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -6820,13 +7222,13 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M134" s="2">
         <v>45043.91625</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -6840,19 +7242,22 @@
       <c r="V134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -6861,13 +7266,13 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M135" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -6881,19 +7286,22 @@
       <c r="V135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -6902,13 +7310,13 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M136" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -6922,19 +7330,22 @@
       <c r="V136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -6943,13 +7354,13 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M137" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -6963,19 +7374,22 @@
       <c r="V137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -6984,13 +7398,13 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M138" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -7004,19 +7418,22 @@
       <c r="V138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -7025,13 +7442,13 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M139" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -7045,19 +7462,22 @@
       <c r="V139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -7066,13 +7486,13 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M140" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -7086,19 +7506,22 @@
       <c r="V140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -7107,13 +7530,13 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M141" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -7127,19 +7550,22 @@
       <c r="V141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -7148,13 +7574,13 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M142" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -7168,19 +7594,22 @@
       <c r="V142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -7189,13 +7618,13 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M143" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -7209,19 +7638,22 @@
       <c r="V143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -7230,13 +7662,13 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M144" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -7250,19 +7682,22 @@
       <c r="V144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -7271,13 +7706,13 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M145" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -7291,19 +7726,22 @@
       <c r="V145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -7312,13 +7750,13 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M146" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -7332,19 +7770,22 @@
       <c r="V146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -7353,13 +7794,13 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M147" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -7373,19 +7814,22 @@
       <c r="V147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -7394,13 +7838,13 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M148" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -7414,19 +7858,22 @@
       <c r="V148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -7435,13 +7882,13 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M149" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -7455,19 +7902,22 @@
       <c r="V149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -7476,13 +7926,13 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M150" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -7496,19 +7946,22 @@
       <c r="V150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -7517,13 +7970,13 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M151" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -7537,19 +7990,22 @@
       <c r="V151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -7558,13 +8014,13 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M152" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -7578,19 +8034,22 @@
       <c r="V152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -7599,13 +8058,13 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M153" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -7619,19 +8078,22 @@
       <c r="V153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -7640,13 +8102,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M154" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S154">
         <v>0</v>
@@ -7660,19 +8122,22 @@
       <c r="V154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -7681,13 +8146,13 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M155" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -7701,19 +8166,22 @@
       <c r="V155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -7722,13 +8190,13 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M156" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S156">
         <v>0</v>
@@ -7742,19 +8210,22 @@
       <c r="V156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -7763,13 +8234,13 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M157" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -7783,19 +8254,22 @@
       <c r="V157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -7804,13 +8278,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M158" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S158">
         <v>0</v>
@@ -7824,19 +8298,22 @@
       <c r="V158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -7845,13 +8322,13 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M159" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -7865,19 +8342,22 @@
       <c r="V159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -7886,13 +8366,13 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M160" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -7906,19 +8386,22 @@
       <c r="V160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -7927,13 +8410,13 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M161" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -7947,19 +8430,22 @@
       <c r="V161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -7968,13 +8454,13 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M162" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -7988,19 +8474,22 @@
       <c r="V162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -8009,13 +8498,13 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M163" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S163">
         <v>0</v>
@@ -8029,19 +8518,22 @@
       <c r="V163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -8050,13 +8542,13 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S164">
         <v>0</v>
@@ -8070,19 +8562,22 @@
       <c r="V164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -8091,13 +8586,13 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S165">
         <v>0</v>
@@ -8111,19 +8606,22 @@
       <c r="V165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -8132,13 +8630,13 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S166">
         <v>0</v>
@@ -8152,19 +8650,22 @@
       <c r="V166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="W166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -8173,13 +8674,13 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -8193,19 +8694,22 @@
       <c r="V167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -8214,13 +8718,13 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -8234,19 +8738,22 @@
       <c r="V168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -8255,13 +8762,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M169" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -8275,19 +8782,22 @@
       <c r="V169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -8296,13 +8806,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M170" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="P170" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S170">
         <v>0</v>
@@ -8316,19 +8826,22 @@
       <c r="V170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -8337,13 +8850,13 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M171" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P171" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -8357,19 +8870,22 @@
       <c r="V171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -8378,13 +8894,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M172" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P172" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -8398,19 +8914,22 @@
       <c r="V172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -8419,13 +8938,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M173" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -8439,19 +8958,22 @@
       <c r="V173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -8460,13 +8982,13 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M174" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="P174" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -8480,19 +9002,22 @@
       <c r="V174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -8501,13 +9026,13 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M175" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S175">
         <v>0</v>
@@ -8521,19 +9046,22 @@
       <c r="V175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -8542,13 +9070,13 @@
         <v>109</v>
       </c>
       <c r="L176" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M176" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -8562,19 +9090,22 @@
       <c r="V176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -8583,13 +9114,13 @@
         <v>110</v>
       </c>
       <c r="L177" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M177" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -8603,19 +9134,22 @@
       <c r="V177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B178" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J178">
         <v>63</v>
@@ -8624,13 +9158,13 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M178" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -8644,19 +9178,22 @@
       <c r="V178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -8665,13 +9202,13 @@
         <v>111</v>
       </c>
       <c r="L179" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M179" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -8685,19 +9222,22 @@
       <c r="V179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -8706,13 +9246,13 @@
         <v>113</v>
       </c>
       <c r="L180" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M180" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="P180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -8726,19 +9266,22 @@
       <c r="V180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -8747,13 +9290,13 @@
         <v>114</v>
       </c>
       <c r="L181" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M181" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -8767,19 +9310,22 @@
       <c r="V181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -8788,13 +9334,13 @@
         <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M182" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -8808,19 +9354,22 @@
       <c r="V182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -8829,13 +9378,13 @@
         <v>117</v>
       </c>
       <c r="L183" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M183" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P183" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -8849,19 +9398,22 @@
       <c r="V183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J184">
         <v>68</v>
@@ -8870,13 +9422,13 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M184" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P184" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -8890,19 +9442,22 @@
       <c r="V184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J185">
         <v>68</v>
@@ -8911,13 +9466,13 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M185" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P185" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -8931,19 +9486,22 @@
       <c r="V185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -8952,13 +9510,13 @@
         <v>118</v>
       </c>
       <c r="L186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M186" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="P186" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -8972,19 +9530,22 @@
       <c r="V186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -8993,13 +9554,13 @@
         <v>119</v>
       </c>
       <c r="L187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M187" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P187" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S187">
         <v>0</v>
@@ -9013,19 +9574,22 @@
       <c r="V187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J188">
         <v>70</v>
@@ -9034,13 +9598,13 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M188" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -9054,19 +9618,22 @@
       <c r="V188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J189">
         <v>70</v>
@@ -9075,13 +9642,13 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M189" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P189" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -9095,19 +9662,22 @@
       <c r="V189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J190">
         <v>70</v>
@@ -9116,13 +9686,13 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M190" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -9136,19 +9706,22 @@
       <c r="V190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J191">
         <v>70</v>
@@ -9157,13 +9730,13 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M191" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P191" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -9177,19 +9750,22 @@
       <c r="V191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="W191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J192">
         <v>70</v>
@@ -9198,13 +9774,13 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M192" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S192">
         <v>0</v>
@@ -9218,19 +9794,22 @@
       <c r="V192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="W192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B193" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J193">
         <v>70</v>
@@ -9239,13 +9818,13 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M193" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P193" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S193">
         <v>0</v>
@@ -9259,19 +9838,22 @@
       <c r="V193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="W193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J194">
         <v>70</v>
@@ -9280,13 +9862,13 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -9300,19 +9882,22 @@
       <c r="V194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="W194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J195">
         <v>70</v>
@@ -9321,13 +9906,13 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S195">
         <v>0</v>
@@ -9341,19 +9926,22 @@
       <c r="V195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="W195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J196">
         <v>70</v>
@@ -9362,13 +9950,13 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P196" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -9382,19 +9970,22 @@
       <c r="V196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="W196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J197">
         <v>70</v>
@@ -9403,13 +9994,13 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S197">
         <v>0</v>
@@ -9423,19 +10014,22 @@
       <c r="V197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="W197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J198">
         <v>70</v>
@@ -9444,13 +10038,13 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -9462,6 +10056,9 @@
         <v>0</v>
       </c>
       <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="290">
   <si>
     <t>p17_can</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
   </si>
   <si>
     <t>l1</t>
@@ -1320,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W198"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,25 +1384,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1417,13 +1405,13 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M2" s="2">
         <v>44992.70601851852</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1434,25 +1422,19 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1461,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M3" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1478,25 +1460,19 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1505,13 +1481,13 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M4" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="P4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1522,25 +1498,19 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1549,13 +1519,13 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1566,25 +1536,19 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1593,13 +1557,13 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="P6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1610,25 +1574,19 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1637,13 +1595,13 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1654,25 +1612,19 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1681,13 +1633,13 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1698,25 +1650,19 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1725,13 +1671,13 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="P9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1742,25 +1688,19 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1769,13 +1709,13 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M10" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1786,25 +1726,19 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1813,13 +1747,13 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1830,25 +1764,19 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1857,13 +1785,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1874,25 +1802,19 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1901,13 +1823,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1918,25 +1840,19 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1945,13 +1861,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1962,25 +1878,19 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1989,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M15" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="P15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2006,25 +1916,19 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -2033,13 +1937,13 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M16" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="P16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2050,25 +1954,19 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -2077,13 +1975,13 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2094,25 +1992,19 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -2121,13 +2013,13 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2138,25 +2030,19 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2165,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2182,25 +2068,19 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2209,13 +2089,13 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2226,25 +2106,19 @@
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2253,13 +2127,13 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2270,25 +2144,19 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2297,13 +2165,13 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2314,25 +2182,19 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2341,13 +2203,13 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2358,25 +2220,19 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2385,13 +2241,13 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2402,25 +2258,19 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2429,13 +2279,13 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2446,25 +2296,19 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2473,13 +2317,13 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2490,25 +2334,19 @@
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2517,13 +2355,13 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2534,25 +2372,19 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2561,13 +2393,13 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2578,25 +2410,19 @@
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2605,13 +2431,13 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2622,25 +2448,19 @@
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2649,13 +2469,13 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M30" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2666,25 +2486,19 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2693,13 +2507,13 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M31" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2710,25 +2524,19 @@
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2737,13 +2545,13 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2754,25 +2562,19 @@
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2781,13 +2583,13 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M33" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2798,25 +2600,19 @@
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2825,13 +2621,13 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M34" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2842,25 +2638,19 @@
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2869,13 +2659,13 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M35" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -2886,25 +2676,19 @@
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -2913,13 +2697,13 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -2930,25 +2714,19 @@
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -2957,13 +2735,13 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M37" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2974,25 +2752,19 @@
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -3001,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3018,25 +2790,19 @@
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -3045,13 +2811,13 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3062,25 +2828,19 @@
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -3089,13 +2849,13 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M40" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3106,25 +2866,19 @@
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -3133,13 +2887,13 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M41" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3150,25 +2904,19 @@
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -3177,13 +2925,13 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3194,25 +2942,19 @@
       <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -3221,13 +2963,13 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3238,25 +2980,19 @@
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -3265,13 +3001,13 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3282,25 +3018,19 @@
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -3309,13 +3039,13 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M45" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3326,25 +3056,19 @@
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -3353,13 +3077,13 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M46" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3370,25 +3094,19 @@
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -3397,13 +3115,13 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M47" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3414,25 +3132,19 @@
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3441,13 +3153,13 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M48" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3458,25 +3170,19 @@
       <c r="U48">
         <v>0</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3485,13 +3191,13 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M49" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="P49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3502,25 +3208,19 @@
       <c r="U49">
         <v>0</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3529,13 +3229,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M50" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -3546,25 +3246,19 @@
       <c r="U50">
         <v>0</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3573,13 +3267,13 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M51" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -3590,25 +3284,19 @@
       <c r="U51">
         <v>0</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3617,13 +3305,13 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M52" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="P52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -3634,25 +3322,19 @@
       <c r="U52">
         <v>0</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3661,13 +3343,13 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M53" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -3678,25 +3360,19 @@
       <c r="U53">
         <v>0</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3705,13 +3381,13 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M54" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="P54" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -3722,25 +3398,19 @@
       <c r="U54">
         <v>0</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3749,13 +3419,13 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M55" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -3766,25 +3436,19 @@
       <c r="U55">
         <v>0</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3793,13 +3457,13 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M56" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -3810,25 +3474,19 @@
       <c r="U56">
         <v>0</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -3837,13 +3495,13 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M57" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -3854,25 +3512,19 @@
       <c r="U57">
         <v>0</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -3881,13 +3533,13 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M58" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="P58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -3898,25 +3550,19 @@
       <c r="U58">
         <v>0</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -3925,13 +3571,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M59" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -3942,25 +3588,19 @@
       <c r="U59">
         <v>0</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -3969,13 +3609,13 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -3986,25 +3626,19 @@
       <c r="U60">
         <v>0</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -4013,13 +3647,13 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M61" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4030,25 +3664,19 @@
       <c r="U61">
         <v>0</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -4057,13 +3685,13 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M62" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4074,25 +3702,19 @@
       <c r="U62">
         <v>0</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -4101,13 +3723,13 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M63" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -4118,25 +3740,19 @@
       <c r="U63">
         <v>0</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -4145,13 +3761,13 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M64" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -4162,22 +3778,16 @@
       <c r="U64">
         <v>0</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+    </row>
+    <row r="65" spans="1:21">
       <c r="B65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -4186,13 +3796,13 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M65" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4203,25 +3813,19 @@
       <c r="U65">
         <v>0</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -4230,13 +3834,13 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M66" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4247,25 +3851,19 @@
       <c r="U66">
         <v>0</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -4274,13 +3872,13 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M67" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="P67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -4291,25 +3889,19 @@
       <c r="U67">
         <v>0</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -4318,13 +3910,13 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -4335,25 +3927,19 @@
       <c r="U68">
         <v>0</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -4362,13 +3948,13 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -4379,25 +3965,19 @@
       <c r="U69">
         <v>0</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -4406,13 +3986,13 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -4423,25 +4003,19 @@
       <c r="U70">
         <v>0</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -4450,13 +4024,13 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -4467,25 +4041,19 @@
       <c r="U71">
         <v>0</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -4494,13 +4062,13 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M72" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -4511,25 +4079,19 @@
       <c r="U72">
         <v>0</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -4538,13 +4100,13 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -4555,25 +4117,19 @@
       <c r="U73">
         <v>0</v>
       </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -4582,13 +4138,13 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -4599,25 +4155,19 @@
       <c r="U74">
         <v>0</v>
       </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -4626,13 +4176,13 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M75" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -4643,25 +4193,19 @@
       <c r="U75">
         <v>0</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -4670,13 +4214,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M76" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -4687,25 +4231,19 @@
       <c r="U76">
         <v>0</v>
       </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4714,13 +4252,13 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M77" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -4731,25 +4269,19 @@
       <c r="U77">
         <v>0</v>
       </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4758,13 +4290,13 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M78" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P78" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -4775,25 +4307,19 @@
       <c r="U78">
         <v>0</v>
       </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -4802,13 +4328,13 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M79" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -4819,25 +4345,19 @@
       <c r="U79">
         <v>0</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -4846,13 +4366,13 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M80" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -4863,25 +4383,19 @@
       <c r="U80">
         <v>0</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -4890,13 +4404,13 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M81" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -4907,25 +4421,19 @@
       <c r="U81">
         <v>0</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -4934,13 +4442,13 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M82" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -4951,25 +4459,19 @@
       <c r="U82">
         <v>0</v>
       </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -4978,13 +4480,13 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M83" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -4995,25 +4497,19 @@
       <c r="U83">
         <v>0</v>
       </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -5022,13 +4518,13 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M84" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="P84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -5039,25 +4535,19 @@
       <c r="U84">
         <v>0</v>
       </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -5066,13 +4556,13 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M85" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -5083,25 +4573,19 @@
       <c r="U85">
         <v>0</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -5110,13 +4594,13 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M86" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -5127,25 +4611,19 @@
       <c r="U86">
         <v>0</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -5154,13 +4632,13 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M87" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -5171,25 +4649,19 @@
       <c r="U87">
         <v>0</v>
       </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -5198,13 +4670,13 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M88" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -5215,25 +4687,19 @@
       <c r="U88">
         <v>0</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -5242,13 +4708,13 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M89" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -5259,25 +4725,19 @@
       <c r="U89">
         <v>0</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -5286,13 +4746,13 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M90" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -5303,25 +4763,19 @@
       <c r="U90">
         <v>0</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -5330,13 +4784,13 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M91" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -5347,25 +4801,19 @@
       <c r="U91">
         <v>0</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -5374,13 +4822,13 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M92" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -5391,25 +4839,19 @@
       <c r="U92">
         <v>0</v>
       </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -5418,13 +4860,13 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M93" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -5435,25 +4877,19 @@
       <c r="U93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -5462,13 +4898,13 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -5479,25 +4915,19 @@
       <c r="U94">
         <v>0</v>
       </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -5506,13 +4936,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M95" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -5523,25 +4953,19 @@
       <c r="U95">
         <v>0</v>
       </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -5550,13 +4974,13 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M96" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -5567,25 +4991,19 @@
       <c r="U96">
         <v>0</v>
       </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -5594,13 +5012,13 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M97" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -5611,25 +5029,19 @@
       <c r="U97">
         <v>0</v>
       </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -5638,13 +5050,13 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M98" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -5655,25 +5067,19 @@
       <c r="U98">
         <v>0</v>
       </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -5682,13 +5088,13 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M99" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -5699,25 +5105,19 @@
       <c r="U99">
         <v>0</v>
       </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -5726,13 +5126,13 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M100" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -5743,25 +5143,19 @@
       <c r="U100">
         <v>0</v>
       </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -5770,13 +5164,13 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M101" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P101" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -5787,25 +5181,19 @@
       <c r="U101">
         <v>0</v>
       </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -5814,13 +5202,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -5831,25 +5219,19 @@
       <c r="U102">
         <v>0</v>
       </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -5858,13 +5240,13 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M103" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -5875,25 +5257,19 @@
       <c r="U103">
         <v>0</v>
       </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="W103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -5902,13 +5278,13 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M104" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -5919,25 +5295,19 @@
       <c r="U104">
         <v>0</v>
       </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -5946,13 +5316,13 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M105" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -5963,25 +5333,19 @@
       <c r="U105">
         <v>0</v>
       </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -5990,13 +5354,13 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M106" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -6007,25 +5371,19 @@
       <c r="U106">
         <v>0</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -6034,13 +5392,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M107" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -6051,25 +5409,19 @@
       <c r="U107">
         <v>0</v>
       </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -6078,13 +5430,13 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M108" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -6095,25 +5447,19 @@
       <c r="U108">
         <v>0</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -6122,13 +5468,13 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M109" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -6139,25 +5485,19 @@
       <c r="U109">
         <v>0</v>
       </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -6166,13 +5506,13 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M110" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -6183,25 +5523,19 @@
       <c r="U110">
         <v>0</v>
       </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -6210,13 +5544,13 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M111" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -6227,25 +5561,19 @@
       <c r="U111">
         <v>0</v>
       </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -6254,13 +5582,13 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M112" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -6271,25 +5599,19 @@
       <c r="U112">
         <v>0</v>
       </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -6298,13 +5620,13 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M113" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -6315,25 +5637,19 @@
       <c r="U113">
         <v>0</v>
       </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -6342,13 +5658,13 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M114" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -6359,25 +5675,19 @@
       <c r="U114">
         <v>0</v>
       </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -6386,13 +5696,13 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M115" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -6403,25 +5713,19 @@
       <c r="U115">
         <v>0</v>
       </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -6430,13 +5734,13 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M116" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="P116" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -6447,25 +5751,19 @@
       <c r="U116">
         <v>0</v>
       </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23">
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -6474,13 +5772,13 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M117" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -6491,25 +5789,19 @@
       <c r="U117">
         <v>0</v>
       </c>
-      <c r="V117">
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -6518,13 +5810,13 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M118" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -6535,25 +5827,19 @@
       <c r="U118">
         <v>0</v>
       </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23">
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -6562,13 +5848,13 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M119" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -6579,25 +5865,19 @@
       <c r="U119">
         <v>0</v>
       </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -6606,13 +5886,13 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M120" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -6623,25 +5903,19 @@
       <c r="U120">
         <v>0</v>
       </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23">
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -6650,13 +5924,13 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M121" s="2">
         <v>45043.57239583333</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -6667,25 +5941,19 @@
       <c r="U121">
         <v>0</v>
       </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23">
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -6694,13 +5962,13 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M122" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -6711,25 +5979,19 @@
       <c r="U122">
         <v>0</v>
       </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -6738,13 +6000,13 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M123" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -6755,25 +6017,19 @@
       <c r="U123">
         <v>0</v>
       </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23">
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -6782,13 +6038,13 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M124" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -6799,25 +6055,19 @@
       <c r="U124">
         <v>0</v>
       </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -6826,13 +6076,13 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M125" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -6843,25 +6093,19 @@
       <c r="U125">
         <v>0</v>
       </c>
-      <c r="V125">
-        <v>0</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23">
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -6870,13 +6114,13 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M126" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -6887,25 +6131,19 @@
       <c r="U126">
         <v>0</v>
       </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23">
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -6914,13 +6152,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M127" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -6931,25 +6169,19 @@
       <c r="U127">
         <v>0</v>
       </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -6958,13 +6190,13 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M128" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -6975,25 +6207,19 @@
       <c r="U128">
         <v>0</v>
       </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23">
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -7002,13 +6228,13 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M129" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -7019,25 +6245,19 @@
       <c r="U129">
         <v>0</v>
       </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23">
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -7046,13 +6266,13 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -7063,25 +6283,19 @@
       <c r="U130">
         <v>0</v>
       </c>
-      <c r="V130">
-        <v>0</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23">
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -7090,13 +6304,13 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -7107,25 +6321,19 @@
       <c r="U131">
         <v>0</v>
       </c>
-      <c r="V131">
-        <v>0</v>
-      </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23">
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -7134,13 +6342,13 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -7151,25 +6359,19 @@
       <c r="U132">
         <v>0</v>
       </c>
-      <c r="V132">
-        <v>0</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23">
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -7178,13 +6380,13 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -7195,25 +6397,19 @@
       <c r="U133">
         <v>0</v>
       </c>
-      <c r="V133">
-        <v>0</v>
-      </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23">
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -7222,13 +6418,13 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M134" s="2">
         <v>45043.91625</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -7239,25 +6435,19 @@
       <c r="U134">
         <v>0</v>
       </c>
-      <c r="V134">
-        <v>0</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -7266,13 +6456,13 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M135" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -7283,25 +6473,19 @@
       <c r="U135">
         <v>0</v>
       </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23">
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -7310,13 +6494,13 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M136" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -7327,25 +6511,19 @@
       <c r="U136">
         <v>0</v>
       </c>
-      <c r="V136">
-        <v>0</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23">
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -7354,13 +6532,13 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M137" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -7371,25 +6549,19 @@
       <c r="U137">
         <v>0</v>
       </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23">
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -7398,13 +6570,13 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M138" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -7415,25 +6587,19 @@
       <c r="U138">
         <v>0</v>
       </c>
-      <c r="V138">
-        <v>0</v>
-      </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23">
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -7442,13 +6608,13 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M139" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -7459,25 +6625,19 @@
       <c r="U139">
         <v>0</v>
       </c>
-      <c r="V139">
-        <v>0</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -7486,13 +6646,13 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M140" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -7503,25 +6663,19 @@
       <c r="U140">
         <v>0</v>
       </c>
-      <c r="V140">
-        <v>0</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23">
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -7530,13 +6684,13 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M141" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -7547,25 +6701,19 @@
       <c r="U141">
         <v>0</v>
       </c>
-      <c r="V141">
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23">
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -7574,13 +6722,13 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M142" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -7591,25 +6739,19 @@
       <c r="U142">
         <v>0</v>
       </c>
-      <c r="V142">
-        <v>0</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23">
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -7618,13 +6760,13 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M143" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S143">
         <v>0</v>
@@ -7635,25 +6777,19 @@
       <c r="U143">
         <v>0</v>
       </c>
-      <c r="V143">
-        <v>0</v>
-      </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23">
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -7662,13 +6798,13 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M144" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -7679,25 +6815,19 @@
       <c r="U144">
         <v>0</v>
       </c>
-      <c r="V144">
-        <v>0</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -7706,13 +6836,13 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M145" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -7723,25 +6853,19 @@
       <c r="U145">
         <v>0</v>
       </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23">
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -7750,13 +6874,13 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M146" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -7767,25 +6891,19 @@
       <c r="U146">
         <v>0</v>
       </c>
-      <c r="V146">
-        <v>0</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23">
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -7794,13 +6912,13 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M147" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -7811,25 +6929,19 @@
       <c r="U147">
         <v>0</v>
       </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -7838,13 +6950,13 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M148" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -7855,25 +6967,19 @@
       <c r="U148">
         <v>0</v>
       </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23">
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -7882,13 +6988,13 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M149" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -7899,25 +7005,19 @@
       <c r="U149">
         <v>0</v>
       </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23">
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -7926,13 +7026,13 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M150" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -7943,25 +7043,19 @@
       <c r="U150">
         <v>0</v>
       </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -7970,13 +7064,13 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M151" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -7987,25 +7081,19 @@
       <c r="U151">
         <v>0</v>
       </c>
-      <c r="V151">
-        <v>0</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -8014,13 +7102,13 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M152" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -8031,25 +7119,19 @@
       <c r="U152">
         <v>0</v>
       </c>
-      <c r="V152">
-        <v>0</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -8058,13 +7140,13 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M153" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -8075,25 +7157,19 @@
       <c r="U153">
         <v>0</v>
       </c>
-      <c r="V153">
-        <v>0</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23">
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -8102,13 +7178,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M154" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S154">
         <v>0</v>
@@ -8119,25 +7195,19 @@
       <c r="U154">
         <v>0</v>
       </c>
-      <c r="V154">
-        <v>0</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -8146,13 +7216,13 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M155" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S155">
         <v>0</v>
@@ -8163,25 +7233,19 @@
       <c r="U155">
         <v>0</v>
       </c>
-      <c r="V155">
-        <v>0</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23">
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -8190,13 +7254,13 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M156" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S156">
         <v>0</v>
@@ -8207,25 +7271,19 @@
       <c r="U156">
         <v>0</v>
       </c>
-      <c r="V156">
-        <v>0</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -8234,13 +7292,13 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M157" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S157">
         <v>0</v>
@@ -8251,25 +7309,19 @@
       <c r="U157">
         <v>0</v>
       </c>
-      <c r="V157">
-        <v>0</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -8278,13 +7330,13 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M158" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S158">
         <v>0</v>
@@ -8295,25 +7347,19 @@
       <c r="U158">
         <v>0</v>
       </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -8322,13 +7368,13 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M159" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -8339,25 +7385,19 @@
       <c r="U159">
         <v>0</v>
       </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -8366,13 +7406,13 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M160" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -8383,25 +7423,19 @@
       <c r="U160">
         <v>0</v>
       </c>
-      <c r="V160">
-        <v>0</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -8410,13 +7444,13 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M161" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S161">
         <v>0</v>
@@ -8427,25 +7461,19 @@
       <c r="U161">
         <v>0</v>
       </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23">
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -8454,13 +7482,13 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M162" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S162">
         <v>0</v>
@@ -8471,25 +7499,19 @@
       <c r="U162">
         <v>0</v>
       </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23">
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -8498,13 +7520,13 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M163" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S163">
         <v>0</v>
@@ -8515,25 +7537,19 @@
       <c r="U163">
         <v>0</v>
       </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23">
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -8542,13 +7558,13 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M164" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P164" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S164">
         <v>0</v>
@@ -8559,25 +7575,19 @@
       <c r="U164">
         <v>0</v>
       </c>
-      <c r="V164">
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23">
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -8586,13 +7596,13 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M165" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S165">
         <v>0</v>
@@ -8603,25 +7613,19 @@
       <c r="U165">
         <v>0</v>
       </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23">
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -8630,13 +7634,13 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M166" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S166">
         <v>0</v>
@@ -8647,25 +7651,19 @@
       <c r="U166">
         <v>0</v>
       </c>
-      <c r="V166">
-        <v>0</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -8674,13 +7672,13 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S167">
         <v>0</v>
@@ -8691,25 +7689,19 @@
       <c r="U167">
         <v>0</v>
       </c>
-      <c r="V167">
-        <v>0</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -8718,13 +7710,13 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -8735,25 +7727,19 @@
       <c r="U168">
         <v>0</v>
       </c>
-      <c r="V168">
-        <v>0</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23">
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -8762,13 +7748,13 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M169" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S169">
         <v>0</v>
@@ -8779,25 +7765,19 @@
       <c r="U169">
         <v>0</v>
       </c>
-      <c r="V169">
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23">
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -8806,13 +7786,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M170" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S170">
         <v>0</v>
@@ -8823,25 +7803,19 @@
       <c r="U170">
         <v>0</v>
       </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23">
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -8850,13 +7824,13 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M171" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -8867,25 +7841,19 @@
       <c r="U171">
         <v>0</v>
       </c>
-      <c r="V171">
-        <v>0</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23">
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -8894,13 +7862,13 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M172" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P172" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -8911,25 +7879,19 @@
       <c r="U172">
         <v>0</v>
       </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -8938,13 +7900,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M173" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="P173" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S173">
         <v>0</v>
@@ -8955,25 +7917,19 @@
       <c r="U173">
         <v>0</v>
       </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -8982,13 +7938,13 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M174" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="P174" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -8999,25 +7955,19 @@
       <c r="U174">
         <v>0</v>
       </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23">
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -9026,13 +7976,13 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M175" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S175">
         <v>0</v>
@@ -9043,25 +7993,19 @@
       <c r="U175">
         <v>0</v>
       </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23">
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -9070,13 +8014,13 @@
         <v>109</v>
       </c>
       <c r="L176" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M176" s="2">
         <v>45045.17846064815</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -9087,25 +8031,19 @@
       <c r="U176">
         <v>0</v>
       </c>
-      <c r="V176">
-        <v>0</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -9114,13 +8052,13 @@
         <v>110</v>
       </c>
       <c r="L177" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M177" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S177">
         <v>0</v>
@@ -9131,25 +8069,19 @@
       <c r="U177">
         <v>0</v>
       </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23">
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J178">
         <v>63</v>
@@ -9158,13 +8090,13 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M178" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S178">
         <v>0</v>
@@ -9175,25 +8107,19 @@
       <c r="U178">
         <v>0</v>
       </c>
-      <c r="V178">
-        <v>0</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23">
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -9202,13 +8128,13 @@
         <v>111</v>
       </c>
       <c r="L179" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M179" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S179">
         <v>0</v>
@@ -9219,25 +8145,19 @@
       <c r="U179">
         <v>0</v>
       </c>
-      <c r="V179">
-        <v>0</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -9246,13 +8166,13 @@
         <v>113</v>
       </c>
       <c r="L180" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M180" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="P180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -9263,25 +8183,19 @@
       <c r="U180">
         <v>0</v>
       </c>
-      <c r="V180">
-        <v>0</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23">
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -9290,13 +8204,13 @@
         <v>114</v>
       </c>
       <c r="L181" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M181" s="2">
         <v>45048.51474537037</v>
       </c>
       <c r="P181" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S181">
         <v>0</v>
@@ -9307,25 +8221,19 @@
       <c r="U181">
         <v>0</v>
       </c>
-      <c r="V181">
-        <v>0</v>
-      </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23">
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -9334,13 +8242,13 @@
         <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M182" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="P182" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -9351,25 +8259,19 @@
       <c r="U182">
         <v>0</v>
       </c>
-      <c r="V182">
-        <v>0</v>
-      </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23">
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -9378,13 +8280,13 @@
         <v>117</v>
       </c>
       <c r="L183" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M183" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P183" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -9395,25 +8297,19 @@
       <c r="U183">
         <v>0</v>
       </c>
-      <c r="V183">
-        <v>0</v>
-      </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23">
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J184">
         <v>68</v>
@@ -9422,13 +8318,13 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M184" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P184" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S184">
         <v>0</v>
@@ -9439,25 +8335,19 @@
       <c r="U184">
         <v>0</v>
       </c>
-      <c r="V184">
-        <v>0</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23">
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J185">
         <v>68</v>
@@ -9466,13 +8356,13 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M185" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="P185" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -9483,25 +8373,19 @@
       <c r="U185">
         <v>0</v>
       </c>
-      <c r="V185">
-        <v>0</v>
-      </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23">
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -9510,13 +8394,13 @@
         <v>118</v>
       </c>
       <c r="L186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M186" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="P186" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -9527,25 +8411,19 @@
       <c r="U186">
         <v>0</v>
       </c>
-      <c r="V186">
-        <v>0</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23">
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -9554,13 +8432,13 @@
         <v>119</v>
       </c>
       <c r="L187" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M187" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P187" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S187">
         <v>0</v>
@@ -9571,25 +8449,19 @@
       <c r="U187">
         <v>0</v>
       </c>
-      <c r="V187">
-        <v>0</v>
-      </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23">
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J188">
         <v>70</v>
@@ -9598,13 +8470,13 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M188" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P188" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S188">
         <v>0</v>
@@ -9615,25 +8487,19 @@
       <c r="U188">
         <v>0</v>
       </c>
-      <c r="V188">
-        <v>0</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23">
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J189">
         <v>70</v>
@@ -9642,13 +8508,13 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M189" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S189">
         <v>0</v>
@@ -9659,25 +8525,19 @@
       <c r="U189">
         <v>0</v>
       </c>
-      <c r="V189">
-        <v>0</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23">
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J190">
         <v>70</v>
@@ -9686,13 +8546,13 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M190" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -9703,25 +8563,19 @@
       <c r="U190">
         <v>0</v>
       </c>
-      <c r="V190">
-        <v>0</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23">
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J191">
         <v>70</v>
@@ -9730,13 +8584,13 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M191" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P191" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S191">
         <v>0</v>
@@ -9747,25 +8601,19 @@
       <c r="U191">
         <v>0</v>
       </c>
-      <c r="V191">
-        <v>0</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23">
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J192">
         <v>70</v>
@@ -9774,13 +8622,13 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M192" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P192" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S192">
         <v>0</v>
@@ -9791,25 +8639,19 @@
       <c r="U192">
         <v>0</v>
       </c>
-      <c r="V192">
-        <v>0</v>
-      </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23">
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J193">
         <v>70</v>
@@ -9818,13 +8660,13 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M193" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P193" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S193">
         <v>0</v>
@@ -9835,25 +8677,19 @@
       <c r="U193">
         <v>0</v>
       </c>
-      <c r="V193">
-        <v>0</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23">
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J194">
         <v>70</v>
@@ -9862,13 +8698,13 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M194" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S194">
         <v>0</v>
@@ -9879,25 +8715,19 @@
       <c r="U194">
         <v>0</v>
       </c>
-      <c r="V194">
-        <v>0</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J195">
         <v>70</v>
@@ -9906,13 +8736,13 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M195" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S195">
         <v>0</v>
@@ -9923,25 +8753,19 @@
       <c r="U195">
         <v>0</v>
       </c>
-      <c r="V195">
-        <v>0</v>
-      </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23">
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J196">
         <v>70</v>
@@ -9950,13 +8774,13 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M196" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P196" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S196">
         <v>0</v>
@@ -9967,25 +8791,19 @@
       <c r="U196">
         <v>0</v>
       </c>
-      <c r="V196">
-        <v>0</v>
-      </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J197">
         <v>70</v>
@@ -9994,13 +8812,13 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M197" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S197">
         <v>0</v>
@@ -10011,25 +8829,19 @@
       <c r="U197">
         <v>0</v>
       </c>
-      <c r="V197">
-        <v>0</v>
-      </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23">
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J198">
         <v>70</v>
@@ -10038,13 +8850,13 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M198" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="P198" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S198">
         <v>0</v>
@@ -10053,12 +8865,6 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>0</v>
-      </c>
-      <c r="V198">
-        <v>0</v>
-      </c>
-      <c r="W198">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -4945,13 +4945,13 @@
         <v>288</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -4983,13 +4983,13 @@
         <v>288</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -5021,13 +5021,13 @@
         <v>288</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -5059,13 +5059,13 @@
         <v>288</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U98">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -5097,13 +5097,13 @@
         <v>288</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -5135,13 +5135,13 @@
         <v>288</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -5173,13 +5173,13 @@
         <v>288</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -5211,13 +5211,13 @@
         <v>288</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103" spans="1:21">

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -5971,13 +5971,13 @@
         <v>288</v>
       </c>
       <c r="S122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -6009,13 +6009,13 @@
         <v>288</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -6047,13 +6047,13 @@
         <v>288</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T124">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U124">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125" spans="1:21">

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -5971,13 +5971,13 @@
         <v>288</v>
       </c>
       <c r="S122">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T122">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -6009,13 +6009,13 @@
         <v>288</v>
       </c>
       <c r="S123">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T123">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U123">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -6047,13 +6047,13 @@
         <v>288</v>
       </c>
       <c r="S124">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T124">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U124">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:21">

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Jose\Downloads\bucles\files\separadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C833EAF-2A6B-408C-B94B-44774E37B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F3381-5F0C-4325-A65B-3679D2287A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="288">
   <si>
     <t>p17_can</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -950,7 +947,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1006,7 +1003,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,15 +1306,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:S198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,22 +1372,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1399,33 +1393,30 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>44992.706018518518</v>
       </c>
       <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1434,33 +1425,30 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>44998.826516203713</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1469,33 +1457,30 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1504,33 +1489,30 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>45021.788078703707</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1539,33 +1521,30 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6">
         <v>0.6</v>
       </c>
-      <c r="T6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1574,33 +1553,30 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -1609,33 +1585,30 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1644,33 +1617,30 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1679,33 +1649,30 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="2">
         <v>45028.798703703702</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1714,33 +1681,30 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1749,33 +1713,30 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -1784,33 +1745,30 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -1819,33 +1777,30 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15">
         <v>9</v>
@@ -1854,33 +1809,30 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1889,33 +1841,30 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2">
         <v>45028.887245370373</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17">
         <v>11</v>
@@ -1924,33 +1873,30 @@
         <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18">
         <v>11</v>
@@ -1959,33 +1905,30 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -1994,33 +1937,30 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -2029,33 +1969,30 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -2064,33 +2001,30 @@
         <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -2099,33 +2033,30 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <v>11</v>
@@ -2134,33 +2065,30 @@
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -2169,33 +2097,30 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -2204,33 +2129,30 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M25" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26">
         <v>11</v>
@@ -2239,33 +2161,30 @@
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>11</v>
@@ -2274,33 +2193,30 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28">
         <v>11</v>
@@ -2309,33 +2225,30 @@
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2344,33 +2257,30 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M29" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <v>11</v>
@@ -2379,33 +2289,30 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31">
         <v>11</v>
@@ -2414,33 +2321,30 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32">
         <v>11</v>
@@ -2449,33 +2353,30 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33">
         <v>11</v>
@@ -2484,33 +2385,30 @@
         <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2519,33 +2417,30 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35">
         <v>12</v>
@@ -2554,33 +2449,30 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M35" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36">
         <v>12</v>
@@ -2589,33 +2481,30 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M36" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -2624,33 +2513,30 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M37" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38">
         <v>13</v>
@@ -2659,33 +2545,30 @@
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M38" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="P38" t="s">
+        <v>73</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39">
         <v>13</v>
@@ -2694,33 +2577,30 @@
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M39" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="P39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40">
         <v>14</v>
@@ -2729,33 +2609,30 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41">
         <v>14</v>
@@ -2764,33 +2641,30 @@
         <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M41" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42">
         <v>15</v>
@@ -2799,33 +2673,30 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M42" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43">
         <v>15</v>
@@ -2834,33 +2705,30 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44">
         <v>15</v>
@@ -2869,33 +2737,30 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M44" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45">
         <v>16</v>
@@ -2904,33 +2769,30 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M45" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46">
         <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46">
         <v>16</v>
@@ -2939,33 +2801,30 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M46" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47">
         <v>16</v>
@@ -2974,33 +2833,30 @@
         <v>25</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M47" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <v>17</v>
@@ -3009,33 +2865,30 @@
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M48" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="P48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49">
         <v>18</v>
@@ -3044,33 +2897,30 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M49" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -3079,33 +2929,30 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51">
         <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51">
         <v>19</v>
@@ -3114,33 +2961,30 @@
         <v>30</v>
       </c>
       <c r="L51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <v>19</v>
@@ -3149,33 +2993,30 @@
         <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M52" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53">
         <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -3184,33 +3025,30 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M53" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="P53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -3219,33 +3057,30 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M54" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55">
         <v>21</v>
@@ -3254,33 +3089,30 @@
         <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M55" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S55">
         <v>0.6</v>
       </c>
-      <c r="T55">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56">
         <v>22</v>
@@ -3289,33 +3121,30 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M56" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57">
         <v>22</v>
@@ -3324,33 +3153,30 @@
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>57</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58">
         <v>22</v>
@@ -3359,33 +3185,30 @@
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M58" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59">
         <v>23</v>
@@ -3394,33 +3217,30 @@
         <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M59" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60">
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60">
         <v>24</v>
@@ -3429,33 +3249,30 @@
         <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M60" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="P60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61">
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61">
         <v>24</v>
@@ -3464,33 +3281,30 @@
         <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M61" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="P61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62">
         <v>24</v>
@@ -3499,33 +3313,30 @@
         <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M62" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="P62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63">
         <v>24</v>
@@ -3534,33 +3345,30 @@
         <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M63" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="P63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64">
         <v>24</v>
@@ -3569,30 +3377,27 @@
         <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M64" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="P64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65">
         <v>25</v>
@@ -3601,33 +3406,30 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M65" s="2">
         <v>45033.799467592587</v>
       </c>
       <c r="P65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>65</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66">
         <v>26</v>
@@ -3636,33 +3438,30 @@
         <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M66" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="P66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67">
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67">
         <v>27</v>
@@ -3671,33 +3470,30 @@
         <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M67" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="P67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68">
         <v>67</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68">
         <v>28</v>
@@ -3706,33 +3502,30 @@
         <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M68" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69">
         <v>68</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <v>28</v>
@@ -3741,33 +3534,30 @@
         <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M69" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -3776,33 +3566,30 @@
         <v>57</v>
       </c>
       <c r="L70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M70" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71">
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -3811,33 +3598,30 @@
         <v>57</v>
       </c>
       <c r="L71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M71" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="P71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72">
         <v>29</v>
@@ -3846,33 +3630,30 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M72" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="P72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73">
         <v>72</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <v>30</v>
@@ -3881,33 +3662,30 @@
         <v>59</v>
       </c>
       <c r="L73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M73" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J74">
         <v>30</v>
@@ -3916,33 +3694,30 @@
         <v>59</v>
       </c>
       <c r="L74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M74" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>74</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75">
         <v>30</v>
@@ -3951,33 +3726,30 @@
         <v>59</v>
       </c>
       <c r="L75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M75" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76">
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J76">
         <v>30</v>
@@ -3986,33 +3758,30 @@
         <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M76" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77">
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77">
         <v>30</v>
@@ -4021,33 +3790,30 @@
         <v>59</v>
       </c>
       <c r="L77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M77" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -4056,33 +3822,30 @@
         <v>59</v>
       </c>
       <c r="L78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M78" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79">
         <v>30</v>
@@ -4091,33 +3854,30 @@
         <v>59</v>
       </c>
       <c r="L79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M79" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80">
         <v>30</v>
@@ -4126,33 +3886,30 @@
         <v>59</v>
       </c>
       <c r="L80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M80" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81">
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81">
         <v>30</v>
@@ -4161,33 +3918,30 @@
         <v>59</v>
       </c>
       <c r="L81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M81" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82">
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82">
         <v>30</v>
@@ -4196,33 +3950,30 @@
         <v>59</v>
       </c>
       <c r="L82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M82" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="P82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83">
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83">
         <v>31</v>
@@ -4231,33 +3982,30 @@
         <v>60</v>
       </c>
       <c r="L83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M83" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="P83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84">
         <v>32</v>
@@ -4266,33 +4014,30 @@
         <v>61</v>
       </c>
       <c r="L84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M84" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="P84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S84">
         <v>0</v>
       </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85">
         <v>33</v>
@@ -4301,33 +4046,30 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M85" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86">
         <v>33</v>
@@ -4336,33 +4078,30 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M86" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J87">
         <v>33</v>
@@ -4371,33 +4110,30 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M87" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88">
         <v>33</v>
@@ -4406,33 +4142,30 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M88" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S88">
         <v>0</v>
       </c>
-      <c r="T88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H89">
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -4441,33 +4174,30 @@
         <v>63</v>
       </c>
       <c r="L89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M89" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
-      <c r="T89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90">
         <v>89</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90">
         <v>33</v>
@@ -4476,33 +4206,30 @@
         <v>63</v>
       </c>
       <c r="L90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M90" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
-      <c r="T90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91">
         <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91">
         <v>33</v>
@@ -4511,33 +4238,30 @@
         <v>63</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M91" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
-      <c r="T91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J92">
         <v>33</v>
@@ -4546,33 +4270,30 @@
         <v>63</v>
       </c>
       <c r="L92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M92" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="P92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>92</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93">
         <v>34</v>
@@ -4581,33 +4302,30 @@
         <v>64</v>
       </c>
       <c r="L93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M93" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="P93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
-      <c r="T93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94">
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94">
         <v>35</v>
@@ -4616,33 +4334,30 @@
         <v>75</v>
       </c>
       <c r="L94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M94" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="P94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
-      <c r="T94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>94</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95">
         <v>36</v>
@@ -4651,33 +4366,30 @@
         <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M95" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S95">
         <v>0.6</v>
       </c>
-      <c r="T95">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>95</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J96">
         <v>36</v>
@@ -4686,33 +4398,30 @@
         <v>77</v>
       </c>
       <c r="L96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M96" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S96">
         <v>0.6</v>
       </c>
-      <c r="T96">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97">
         <v>36</v>
@@ -4721,33 +4430,30 @@
         <v>77</v>
       </c>
       <c r="L97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M97" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S97">
         <v>0.6</v>
       </c>
-      <c r="T97">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98">
         <v>97</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98">
         <v>36</v>
@@ -4756,33 +4462,30 @@
         <v>77</v>
       </c>
       <c r="L98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M98" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S98">
         <v>0.3</v>
       </c>
-      <c r="T98">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>98</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J99">
         <v>36</v>
@@ -4791,33 +4494,30 @@
         <v>77</v>
       </c>
       <c r="L99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M99" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S99">
         <v>0.6</v>
       </c>
-      <c r="T99">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -4826,33 +4526,30 @@
         <v>77</v>
       </c>
       <c r="L100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M100" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S100">
         <v>0.3</v>
       </c>
-      <c r="T100">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101">
         <v>36</v>
@@ -4861,33 +4558,30 @@
         <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M101" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S101">
         <v>0.6</v>
       </c>
-      <c r="T101">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>101</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102">
         <v>36</v>
@@ -4896,33 +4590,30 @@
         <v>77</v>
       </c>
       <c r="L102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M102" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="P102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S102">
         <v>0.3</v>
       </c>
-      <c r="T102">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103">
         <v>37</v>
@@ -4931,33 +4622,30 @@
         <v>78</v>
       </c>
       <c r="L103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M103" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="P103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
-      <c r="T103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>103</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J104">
         <v>38</v>
@@ -4966,33 +4654,30 @@
         <v>80</v>
       </c>
       <c r="L104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M104" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="P104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
-      <c r="T104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>104</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J105">
         <v>38</v>
@@ -5001,33 +4686,30 @@
         <v>80</v>
       </c>
       <c r="L105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M105" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="P105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S105">
         <v>0</v>
       </c>
-      <c r="T105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H106">
         <v>105</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106">
         <v>38</v>
@@ -5036,33 +4718,30 @@
         <v>80</v>
       </c>
       <c r="L106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M106" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="P106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S106">
         <v>0</v>
       </c>
-      <c r="T106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107">
         <v>106</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J107">
         <v>38</v>
@@ -5071,33 +4750,30 @@
         <v>80</v>
       </c>
       <c r="L107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M107" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="P107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S107">
         <v>0</v>
       </c>
-      <c r="T107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>107</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J108">
         <v>39</v>
@@ -5106,33 +4782,30 @@
         <v>81</v>
       </c>
       <c r="L108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M108" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S108">
         <v>0</v>
       </c>
-      <c r="T108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>108</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J109">
         <v>39</v>
@@ -5141,33 +4814,30 @@
         <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M109" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
-      <c r="T109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H110">
         <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110">
         <v>39</v>
@@ -5176,33 +4846,30 @@
         <v>81</v>
       </c>
       <c r="L110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M110" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>110</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J111">
         <v>39</v>
@@ -5211,33 +4878,30 @@
         <v>81</v>
       </c>
       <c r="L111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M111" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112">
         <v>111</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J112">
         <v>39</v>
@@ -5246,33 +4910,30 @@
         <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M112" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
-      <c r="T112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>112</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -5281,33 +4942,30 @@
         <v>81</v>
       </c>
       <c r="L113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M113" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H114">
         <v>113</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114">
         <v>39</v>
@@ -5316,33 +4974,30 @@
         <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M114" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S114">
         <v>0</v>
       </c>
-      <c r="T114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H115">
         <v>114</v>
       </c>
       <c r="I115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J115">
         <v>39</v>
@@ -5351,33 +5006,30 @@
         <v>81</v>
       </c>
       <c r="L115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M115" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S115">
         <v>0</v>
       </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H116">
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J116">
         <v>39</v>
@@ -5386,33 +5038,30 @@
         <v>81</v>
       </c>
       <c r="L116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M116" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="P116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
-      <c r="T116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>116</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J117">
         <v>40</v>
@@ -5421,33 +5070,30 @@
         <v>82</v>
       </c>
       <c r="L117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M117" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="P117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
-      <c r="T117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>117</v>
       </c>
       <c r="I118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J118">
         <v>40</v>
@@ -5456,33 +5102,30 @@
         <v>82</v>
       </c>
       <c r="L118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M118" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="P118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H119">
         <v>118</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J119">
         <v>41</v>
@@ -5491,33 +5134,30 @@
         <v>83</v>
       </c>
       <c r="L119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M119" s="2">
         <v>45042.864039351851</v>
       </c>
       <c r="P119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S119">
         <v>0</v>
       </c>
-      <c r="T119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J120">
         <v>42</v>
@@ -5526,33 +5166,30 @@
         <v>84</v>
       </c>
       <c r="L120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M120" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="P120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S120">
         <v>0</v>
       </c>
-      <c r="T120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H121">
         <v>120</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J121">
         <v>43</v>
@@ -5561,33 +5198,30 @@
         <v>86</v>
       </c>
       <c r="L121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M121" s="2">
         <v>45043.572395833333</v>
       </c>
       <c r="P121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>121</v>
       </c>
       <c r="I122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J122">
         <v>44</v>
@@ -5596,33 +5230,30 @@
         <v>87</v>
       </c>
       <c r="L122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M122" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="P122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S122">
         <v>0.3</v>
       </c>
-      <c r="T122">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>122</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J123">
         <v>44</v>
@@ -5631,33 +5262,30 @@
         <v>87</v>
       </c>
       <c r="L123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M123" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="P123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S123">
         <v>0.6</v>
       </c>
-      <c r="T123">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>123</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J124">
         <v>44</v>
@@ -5666,33 +5294,30 @@
         <v>87</v>
       </c>
       <c r="L124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M124" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="P124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S124">
         <v>0.6</v>
       </c>
-      <c r="T124">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H125">
         <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J125">
         <v>45</v>
@@ -5701,33 +5326,30 @@
         <v>88</v>
       </c>
       <c r="L125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M125" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="P125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S125">
         <v>0</v>
       </c>
-      <c r="T125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -5736,33 +5358,30 @@
         <v>88</v>
       </c>
       <c r="L126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M126" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="P126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S126">
         <v>0</v>
       </c>
-      <c r="T126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>126</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J127">
         <v>45</v>
@@ -5771,33 +5390,30 @@
         <v>88</v>
       </c>
       <c r="L127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M127" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="P127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S127">
         <v>0</v>
       </c>
-      <c r="T127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H128">
         <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J128">
         <v>45</v>
@@ -5806,33 +5422,30 @@
         <v>88</v>
       </c>
       <c r="L128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M128" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="P128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S128">
         <v>0</v>
       </c>
-      <c r="T128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H129">
         <v>128</v>
       </c>
       <c r="I129" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J129">
         <v>45</v>
@@ -5841,33 +5454,30 @@
         <v>88</v>
       </c>
       <c r="L129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M129" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="P129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S129">
         <v>0</v>
       </c>
-      <c r="T129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>129</v>
       </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J130">
         <v>46</v>
@@ -5876,33 +5486,30 @@
         <v>90</v>
       </c>
       <c r="L130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M130" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S130">
         <v>0</v>
       </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>130</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131">
         <v>46</v>
@@ -5911,33 +5518,30 @@
         <v>90</v>
       </c>
       <c r="L131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M131" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S131">
         <v>0</v>
       </c>
-      <c r="T131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>131</v>
       </c>
       <c r="I132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J132">
         <v>46</v>
@@ -5946,33 +5550,30 @@
         <v>90</v>
       </c>
       <c r="L132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M132" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S132">
         <v>0</v>
       </c>
-      <c r="T132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H133">
         <v>132</v>
       </c>
       <c r="I133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J133">
         <v>46</v>
@@ -5981,33 +5582,30 @@
         <v>90</v>
       </c>
       <c r="L133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M133" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="P133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S133">
         <v>0</v>
       </c>
-      <c r="T133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134">
         <v>133</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J134">
         <v>47</v>
@@ -6016,33 +5614,30 @@
         <v>91</v>
       </c>
       <c r="L134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M134" s="2">
         <v>45043.916250000002</v>
       </c>
       <c r="P134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S134">
         <v>0</v>
       </c>
-      <c r="T134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>134</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J135">
         <v>48</v>
@@ -6051,33 +5646,30 @@
         <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M135" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="P135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S135">
         <v>0</v>
       </c>
-      <c r="T135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>135</v>
       </c>
       <c r="I136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J136">
         <v>49</v>
@@ -6086,33 +5678,30 @@
         <v>93</v>
       </c>
       <c r="L136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M136" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S136">
         <v>0</v>
       </c>
-      <c r="T136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J137">
         <v>49</v>
@@ -6121,33 +5710,30 @@
         <v>93</v>
       </c>
       <c r="L137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M137" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S137">
         <v>0</v>
       </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>137</v>
       </c>
       <c r="I138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J138">
         <v>49</v>
@@ -6156,33 +5742,30 @@
         <v>93</v>
       </c>
       <c r="L138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M138" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S138">
         <v>0</v>
       </c>
-      <c r="T138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J139">
         <v>49</v>
@@ -6191,33 +5774,30 @@
         <v>93</v>
       </c>
       <c r="L139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M139" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S139">
         <v>0</v>
       </c>
-      <c r="T139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H140">
         <v>139</v>
       </c>
       <c r="I140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J140">
         <v>49</v>
@@ -6226,33 +5806,30 @@
         <v>93</v>
       </c>
       <c r="L140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M140" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S140">
         <v>0</v>
       </c>
-      <c r="T140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H141">
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J141">
         <v>49</v>
@@ -6261,33 +5838,30 @@
         <v>93</v>
       </c>
       <c r="L141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M141" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S141">
         <v>0</v>
       </c>
-      <c r="T141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H142">
         <v>141</v>
       </c>
       <c r="I142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J142">
         <v>49</v>
@@ -6296,33 +5870,30 @@
         <v>93</v>
       </c>
       <c r="L142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M142" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S142">
         <v>0</v>
       </c>
-      <c r="T142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H143">
         <v>142</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J143">
         <v>49</v>
@@ -6331,33 +5902,30 @@
         <v>93</v>
       </c>
       <c r="L143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M143" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="P143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S143">
         <v>0</v>
       </c>
-      <c r="T143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>143</v>
       </c>
       <c r="I144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J144">
         <v>50</v>
@@ -6366,33 +5934,30 @@
         <v>94</v>
       </c>
       <c r="L144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M144" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S144">
         <v>0</v>
       </c>
-      <c r="T144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J145">
         <v>50</v>
@@ -6401,33 +5966,30 @@
         <v>94</v>
       </c>
       <c r="L145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M145" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S145">
         <v>0</v>
       </c>
-      <c r="T145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H146">
         <v>145</v>
       </c>
       <c r="I146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J146">
         <v>50</v>
@@ -6436,33 +5998,30 @@
         <v>94</v>
       </c>
       <c r="L146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M146" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S146">
         <v>0</v>
       </c>
-      <c r="T146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H147">
         <v>146</v>
       </c>
       <c r="I147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J147">
         <v>50</v>
@@ -6471,33 +6030,30 @@
         <v>94</v>
       </c>
       <c r="L147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M147" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S147">
         <v>0</v>
       </c>
-      <c r="T147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J148">
         <v>50</v>
@@ -6506,33 +6062,30 @@
         <v>94</v>
       </c>
       <c r="L148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M148" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S148">
         <v>0</v>
       </c>
-      <c r="T148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>148</v>
       </c>
       <c r="I149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J149">
         <v>50</v>
@@ -6541,33 +6094,30 @@
         <v>94</v>
       </c>
       <c r="L149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M149" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S149">
         <v>0</v>
       </c>
-      <c r="T149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>149</v>
       </c>
       <c r="I150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J150">
         <v>50</v>
@@ -6576,33 +6126,30 @@
         <v>94</v>
       </c>
       <c r="L150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M150" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="P150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S150">
         <v>0</v>
       </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>150</v>
       </c>
       <c r="I151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J151">
         <v>51</v>
@@ -6611,33 +6158,30 @@
         <v>95</v>
       </c>
       <c r="L151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M151" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="P151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S151">
         <v>0</v>
       </c>
-      <c r="T151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>151</v>
       </c>
       <c r="I152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J152">
         <v>51</v>
@@ -6646,33 +6190,30 @@
         <v>95</v>
       </c>
       <c r="L152" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M152" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="P152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S152">
         <v>0</v>
       </c>
-      <c r="T152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>152</v>
       </c>
       <c r="I153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J153">
         <v>51</v>
@@ -6681,33 +6222,30 @@
         <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M153" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="P153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S153">
         <v>0</v>
       </c>
-      <c r="T153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>153</v>
       </c>
       <c r="I154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J154">
         <v>51</v>
@@ -6716,33 +6254,30 @@
         <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M154" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="P154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S154">
         <v>0</v>
       </c>
-      <c r="T154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H155">
         <v>154</v>
       </c>
       <c r="I155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J155">
         <v>52</v>
@@ -6751,33 +6286,30 @@
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M155" s="2">
         <v>45044.898946759262</v>
       </c>
       <c r="P155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S155">
         <v>0</v>
       </c>
-      <c r="T155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H156">
         <v>155</v>
       </c>
       <c r="I156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J156">
         <v>52</v>
@@ -6786,33 +6318,30 @@
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M156" s="2">
         <v>45044.898946759262</v>
       </c>
       <c r="P156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S156">
         <v>0</v>
       </c>
-      <c r="T156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H157">
         <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J157">
         <v>53</v>
@@ -6821,33 +6350,30 @@
         <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M157" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="P157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S157">
         <v>0</v>
       </c>
-      <c r="T157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H158">
         <v>157</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J158">
         <v>53</v>
@@ -6856,33 +6382,30 @@
         <v>98</v>
       </c>
       <c r="L158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M158" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="P158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S158">
         <v>0</v>
       </c>
-      <c r="T158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>158</v>
       </c>
       <c r="I159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J159">
         <v>54</v>
@@ -6891,33 +6414,30 @@
         <v>99</v>
       </c>
       <c r="L159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M159" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S159">
         <v>0</v>
       </c>
-      <c r="T159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>159</v>
       </c>
       <c r="I160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J160">
         <v>54</v>
@@ -6926,33 +6446,30 @@
         <v>99</v>
       </c>
       <c r="L160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M160" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S160">
         <v>0</v>
       </c>
-      <c r="T160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>160</v>
       </c>
       <c r="I161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J161">
         <v>54</v>
@@ -6961,33 +6478,30 @@
         <v>99</v>
       </c>
       <c r="L161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M161" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S161">
         <v>0</v>
       </c>
-      <c r="T161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>161</v>
       </c>
       <c r="I162" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J162">
         <v>54</v>
@@ -6996,33 +6510,30 @@
         <v>99</v>
       </c>
       <c r="L162" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M162" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S162">
         <v>0</v>
       </c>
-      <c r="T162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>162</v>
       </c>
       <c r="I163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J163">
         <v>54</v>
@@ -7031,33 +6542,30 @@
         <v>99</v>
       </c>
       <c r="L163" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M163" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S163">
         <v>0</v>
       </c>
-      <c r="T163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>163</v>
       </c>
       <c r="I164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J164">
         <v>54</v>
@@ -7066,33 +6574,30 @@
         <v>99</v>
       </c>
       <c r="L164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M164" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S164">
         <v>0</v>
       </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H165">
         <v>164</v>
       </c>
       <c r="I165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J165">
         <v>54</v>
@@ -7101,33 +6606,30 @@
         <v>99</v>
       </c>
       <c r="L165" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M165" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S165">
         <v>0</v>
       </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>165</v>
       </c>
       <c r="I166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J166">
         <v>54</v>
@@ -7136,33 +6638,30 @@
         <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M166" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="P166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S166">
         <v>0</v>
       </c>
-      <c r="T166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H167">
         <v>166</v>
       </c>
       <c r="I167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J167">
         <v>55</v>
@@ -7171,33 +6670,30 @@
         <v>100</v>
       </c>
       <c r="L167" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M167" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="P167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S167">
         <v>0</v>
       </c>
-      <c r="T167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>167</v>
       </c>
       <c r="I168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J168">
         <v>56</v>
@@ -7206,33 +6702,30 @@
         <v>101</v>
       </c>
       <c r="L168" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M168" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="P168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S168">
         <v>0</v>
       </c>
-      <c r="T168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>168</v>
       </c>
       <c r="I169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J169">
         <v>57</v>
@@ -7241,33 +6734,30 @@
         <v>102</v>
       </c>
       <c r="L169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M169" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="P169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S169">
         <v>0</v>
       </c>
-      <c r="T169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>169</v>
       </c>
       <c r="I170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J170">
         <v>58</v>
@@ -7276,33 +6766,30 @@
         <v>103</v>
       </c>
       <c r="L170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M170" s="2">
         <v>45045.071967592587</v>
       </c>
       <c r="P170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S170">
         <v>0</v>
       </c>
-      <c r="T170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>170</v>
       </c>
       <c r="I171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J171">
         <v>59</v>
@@ -7311,33 +6798,30 @@
         <v>104</v>
       </c>
       <c r="L171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M171" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="P171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S171">
         <v>0</v>
       </c>
-      <c r="T171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>171</v>
       </c>
       <c r="I172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J172">
         <v>59</v>
@@ -7346,33 +6830,30 @@
         <v>104</v>
       </c>
       <c r="L172" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M172" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="P172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S172">
         <v>0</v>
       </c>
-      <c r="T172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H173">
         <v>172</v>
       </c>
       <c r="I173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J173">
         <v>59</v>
@@ -7381,33 +6862,30 @@
         <v>104</v>
       </c>
       <c r="L173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M173" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="P173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S173">
         <v>0</v>
       </c>
-      <c r="T173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>173</v>
       </c>
       <c r="I174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J174">
         <v>60</v>
@@ -7416,33 +6894,30 @@
         <v>105</v>
       </c>
       <c r="L174" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M174" s="2">
         <v>45045.136759259258</v>
       </c>
       <c r="P174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S174">
         <v>0</v>
       </c>
-      <c r="T174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H175">
         <v>174</v>
       </c>
       <c r="I175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J175">
         <v>61</v>
@@ -7451,33 +6926,30 @@
         <v>106</v>
       </c>
       <c r="L175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M175" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="P175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S175">
         <v>0</v>
       </c>
-      <c r="T175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>175</v>
       </c>
       <c r="I176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J176">
         <v>62</v>
@@ -7486,33 +6958,30 @@
         <v>109</v>
       </c>
       <c r="L176" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M176" s="2">
         <v>45045.178460648152</v>
       </c>
       <c r="P176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S176">
         <v>0</v>
       </c>
-      <c r="T176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>176</v>
       </c>
       <c r="I177" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J177">
         <v>63</v>
@@ -7521,33 +6990,30 @@
         <v>110</v>
       </c>
       <c r="L177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M177" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="P177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S177">
         <v>0</v>
       </c>
-      <c r="T177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>177</v>
       </c>
       <c r="I178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J178">
         <v>63</v>
@@ -7556,33 +7022,30 @@
         <v>110</v>
       </c>
       <c r="L178" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M178" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="P178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S178">
         <v>0</v>
       </c>
-      <c r="T178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>178</v>
       </c>
       <c r="I179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J179">
         <v>64</v>
@@ -7591,33 +7054,30 @@
         <v>111</v>
       </c>
       <c r="L179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M179" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="P179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S179">
         <v>0</v>
       </c>
-      <c r="T179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H180">
         <v>179</v>
       </c>
       <c r="I180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J180">
         <v>65</v>
@@ -7626,33 +7086,30 @@
         <v>113</v>
       </c>
       <c r="L180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M180" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="P180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S180">
         <v>0</v>
       </c>
-      <c r="T180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H181">
         <v>180</v>
       </c>
       <c r="I181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J181">
         <v>66</v>
@@ -7661,33 +7118,30 @@
         <v>114</v>
       </c>
       <c r="L181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M181" s="2">
         <v>45048.514745370368</v>
       </c>
       <c r="P181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S181">
         <v>0</v>
       </c>
-      <c r="T181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>181</v>
       </c>
       <c r="I182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J182">
         <v>67</v>
@@ -7696,33 +7150,30 @@
         <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M182" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="P182" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S182">
         <v>0</v>
       </c>
-      <c r="T182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>182</v>
       </c>
       <c r="I183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J183">
         <v>68</v>
@@ -7731,33 +7182,30 @@
         <v>117</v>
       </c>
       <c r="L183" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M183" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="P183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S183">
         <v>0</v>
       </c>
-      <c r="T183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>183</v>
       </c>
       <c r="I184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J184">
         <v>68</v>
@@ -7766,33 +7214,30 @@
         <v>117</v>
       </c>
       <c r="L184" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M184" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="P184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S184">
         <v>0</v>
       </c>
-      <c r="T184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H185">
         <v>184</v>
       </c>
       <c r="I185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J185">
         <v>68</v>
@@ -7801,33 +7246,30 @@
         <v>117</v>
       </c>
       <c r="L185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M185" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="P185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S185">
         <v>0</v>
       </c>
-      <c r="T185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>185</v>
       </c>
       <c r="I186" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J186">
         <v>69</v>
@@ -7836,33 +7278,30 @@
         <v>118</v>
       </c>
       <c r="L186" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M186" s="2">
         <v>45058.123055555552</v>
       </c>
       <c r="P186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S186">
         <v>0</v>
       </c>
-      <c r="T186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>186</v>
       </c>
       <c r="I187" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J187">
         <v>70</v>
@@ -7871,33 +7310,30 @@
         <v>119</v>
       </c>
       <c r="L187" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M187" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S187">
         <v>0</v>
       </c>
-      <c r="T187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>187</v>
       </c>
       <c r="I188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J188">
         <v>70</v>
@@ -7906,33 +7342,30 @@
         <v>119</v>
       </c>
       <c r="L188" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M188" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S188">
         <v>0</v>
       </c>
-      <c r="T188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>188</v>
       </c>
       <c r="I189" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J189">
         <v>70</v>
@@ -7941,33 +7374,30 @@
         <v>119</v>
       </c>
       <c r="L189" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M189" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S189">
         <v>0</v>
       </c>
-      <c r="T189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>189</v>
       </c>
       <c r="I190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J190">
         <v>70</v>
@@ -7976,33 +7406,30 @@
         <v>119</v>
       </c>
       <c r="L190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M190" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S190">
         <v>0</v>
       </c>
-      <c r="T190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>190</v>
       </c>
       <c r="I191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J191">
         <v>70</v>
@@ -8011,33 +7438,30 @@
         <v>119</v>
       </c>
       <c r="L191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M191" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S191">
         <v>0</v>
       </c>
-      <c r="T191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>191</v>
       </c>
       <c r="I192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J192">
         <v>70</v>
@@ -8046,33 +7470,30 @@
         <v>119</v>
       </c>
       <c r="L192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M192" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S192">
         <v>0</v>
       </c>
-      <c r="T192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>192</v>
       </c>
       <c r="I193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J193">
         <v>70</v>
@@ -8081,33 +7502,30 @@
         <v>119</v>
       </c>
       <c r="L193" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M193" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S193">
         <v>0</v>
       </c>
-      <c r="T193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>193</v>
       </c>
       <c r="I194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J194">
         <v>70</v>
@@ -8116,33 +7534,30 @@
         <v>119</v>
       </c>
       <c r="L194" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M194" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S194">
         <v>0</v>
       </c>
-      <c r="T194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>194</v>
       </c>
       <c r="I195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J195">
         <v>70</v>
@@ -8151,33 +7566,30 @@
         <v>119</v>
       </c>
       <c r="L195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M195" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S195">
         <v>0</v>
       </c>
-      <c r="T195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>195</v>
       </c>
       <c r="I196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J196">
         <v>70</v>
@@ -8186,33 +7598,30 @@
         <v>119</v>
       </c>
       <c r="L196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M196" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S196">
         <v>0</v>
       </c>
-      <c r="T196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>196</v>
       </c>
       <c r="I197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J197">
         <v>70</v>
@@ -8221,33 +7630,30 @@
         <v>119</v>
       </c>
       <c r="L197" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M197" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S197">
         <v>0</v>
       </c>
-      <c r="T197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>197</v>
       </c>
       <c r="I198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J198">
         <v>70</v>
@@ -8256,18 +7662,15 @@
         <v>119</v>
       </c>
       <c r="L198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M198" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="P198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S198">
-        <v>0</v>
-      </c>
-      <c r="T198">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -3964,7 +3964,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69">
@@ -4016,7 +4016,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
@@ -4067,7 +4067,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">
@@ -4118,7 +4118,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">

--- a/files/separadas/repeat_p17.xlsx
+++ b/files/separadas/repeat_p17.xlsx
@@ -582,7 +582,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -842,7 +842,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -893,7 +893,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +944,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -6477,7 +6477,7 @@
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="118">
@@ -6528,7 +6528,7 @@
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119">
@@ -8627,7 +8627,7 @@
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="160">
@@ -8678,7 +8678,7 @@
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="161">
@@ -8729,7 +8729,7 @@
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="162">
@@ -8780,7 +8780,7 @@
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="163">
@@ -8831,7 +8831,7 @@
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="164">
@@ -8882,7 +8882,7 @@
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165">
@@ -8933,7 +8933,7 @@
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="166">
@@ -8984,7 +8984,7 @@
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="167">
@@ -9249,7 +9249,7 @@
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172">
@@ -9300,7 +9300,7 @@
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="173">
@@ -9351,7 +9351,7 @@
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="174">
@@ -9457,7 +9457,7 @@
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="176">
@@ -9559,7 +9559,7 @@
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="178">
@@ -9610,7 +9610,7 @@
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="179">
@@ -9865,7 +9865,7 @@
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="184">
@@ -9916,7 +9916,7 @@
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="185">
@@ -9967,7 +9967,7 @@
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="186">
